--- a/Ryan/GCData (4) w Conc Data.xlsx
+++ b/Ryan/GCData (4) w Conc Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="386">
   <si>
     <t>1g_oddfames</t>
   </si>
@@ -194,21 +194,6 @@
     <t>Sc-1</t>
   </si>
   <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Unnamed: 2</t>
-  </si>
-  <si>
-    <t>Unnamed: 3</t>
-  </si>
-  <si>
-    <t>Unnamed: 4</t>
-  </si>
-  <si>
-    <t>Unnamed: 5</t>
-  </si>
-  <si>
     <t>Uncorrected Concentration</t>
   </si>
   <si>
@@ -233,7 +218,7 @@
     <t>0.904967890871</t>
   </si>
   <si>
-    <t>1.67049171144</t>
+    <t>1.670491711437312</t>
   </si>
   <si>
     <t>84.8393496544</t>
@@ -248,7 +233,7 @@
     <t>0.79640402673</t>
   </si>
   <si>
-    <t>0.849596234959</t>
+    <t>0.8495962349590647</t>
   </si>
   <si>
     <t>74.4414556916</t>
@@ -263,7 +248,7 @@
     <t>0.729588541951</t>
   </si>
   <si>
-    <t>1.39151337047</t>
+    <t>1.391513370474275</t>
   </si>
   <si>
     <t>71.4762526986</t>
@@ -275,31 +260,31 @@
     <t>1.84210867103</t>
   </si>
   <si>
-    <t>1.22844606695</t>
+    <t>0.531594224183</t>
   </si>
   <si>
-    <t>1.49954379</t>
+    <t>3.4652533591089996</t>
   </si>
   <si>
     <t>34.8425921381</t>
   </si>
   <si>
-    <t>1.74212960691</t>
+    <t>0.348425921381</t>
   </si>
   <si>
     <t>9.48639901913</t>
   </si>
   <si>
-    <t>1.36663184432</t>
+    <t>0.273326368863</t>
   </si>
   <si>
-    <t>6.94144444138</t>
+    <t>34.70722220687535</t>
   </si>
   <si>
     <t>19.8226816345</t>
   </si>
   <si>
-    <t>0.991134081724</t>
+    <t>0.198226816345</t>
   </si>
   <si>
     <t>67.7773394046</t>
@@ -314,7 +299,7 @@
     <t>0.668641205148</t>
   </si>
   <si>
-    <t>1.53894258108</t>
+    <t>1.5389425810813855</t>
   </si>
   <si>
     <t>65.9509016251</t>
@@ -329,7 +314,7 @@
     <t>0.632458146921</t>
   </si>
   <si>
-    <t>0.849549648621</t>
+    <t>0.8495496486210163</t>
   </si>
   <si>
     <t>60.540727759</t>
@@ -344,7 +329,7 @@
     <t>0.605056572021</t>
   </si>
   <si>
-    <t>1.24843536934</t>
+    <t>1.2484353693377443</t>
   </si>
   <si>
     <t>60.4705866452</t>
@@ -356,7 +341,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>0.990934132421</t>
+    <t>0.440069173065</t>
   </si>
   <si>
     <t>0.0</t>
@@ -365,22 +350,22 @@
     <t>27.5432479678</t>
   </si>
   <si>
-    <t>1.37716239839</t>
+    <t>0.275432479678</t>
   </si>
   <si>
     <t>8.22823238546</t>
   </si>
   <si>
-    <t>1.09909593729</t>
+    <t>0.219819187457</t>
   </si>
   <si>
-    <t>7.48636411647</t>
+    <t>37.43182058237237</t>
   </si>
   <si>
     <t>16.4205895236</t>
   </si>
   <si>
-    <t>0.821029476181</t>
+    <t>0.164205895236</t>
   </si>
   <si>
     <t>93.2479201783</t>
@@ -395,7 +380,7 @@
     <t>0.922916310371</t>
   </si>
   <si>
-    <t>4.15420044839</t>
+    <t>4.154200448393068</t>
   </si>
   <si>
     <t>91.335341896</t>
@@ -410,7 +395,7 @@
     <t>0.873326253711</t>
   </si>
   <si>
-    <t>0.878132285304</t>
+    <t>0.8781322853043995</t>
   </si>
   <si>
     <t>83.3299088463</t>
@@ -425,7 +410,7 @@
     <t>0.799829333185</t>
   </si>
   <si>
-    <t>1.68249436618</t>
+    <t>1.6824943661808334</t>
   </si>
   <si>
     <t>76.6359577907</t>
@@ -437,31 +422,31 @@
     <t>1.65985589164</t>
   </si>
   <si>
-    <t>0.819232877231</t>
+    <t>0.470390406609</t>
   </si>
   <si>
-    <t>2.02610995942</t>
+    <t>3.5286771760695745</t>
   </si>
   <si>
     <t>17.4421235311</t>
   </si>
   <si>
-    <t>0.872106176555</t>
+    <t>0.174421235311</t>
   </si>
   <si>
     <t>12.7269968644</t>
   </si>
   <si>
-    <t>1.01109224224</t>
+    <t>0.202218448447</t>
   </si>
   <si>
-    <t>12.5873746556</t>
+    <t>62.93687327794263</t>
   </si>
   <si>
     <t>23.0015661583</t>
   </si>
   <si>
-    <t>1.15007830792</t>
+    <t>0.230015661583</t>
   </si>
   <si>
     <t>123.57257432</t>
@@ -476,7 +461,7 @@
     <t>1.11000620539</t>
   </si>
   <si>
-    <t>112.835771838</t>
+    <t>112.83577183753017</t>
   </si>
   <si>
     <t>98.4286667576</t>
@@ -491,7 +476,7 @@
     <t>0.880371252829</t>
   </si>
   <si>
-    <t>20.5959440716</t>
+    <t>20.595944071640098</t>
   </si>
   <si>
     <t>77.6455838082</t>
@@ -506,7 +491,7 @@
     <t>0.726918456865</t>
   </si>
   <si>
-    <t>106.689240539</t>
+    <t>106.68924053859324</t>
   </si>
   <si>
     <t>67.7381075648</t>
@@ -518,31 +503,31 @@
     <t>81.2738195038</t>
   </si>
   <si>
-    <t>1.18044117509</t>
+    <t>0.507040665277</t>
   </si>
   <si>
-    <t>68.850376638</t>
+    <t>160.290534999718</t>
   </si>
   <si>
     <t>33.6700254906</t>
   </si>
   <si>
-    <t>1.68350127453</t>
+    <t>0.336700254906</t>
   </si>
   <si>
     <t>24.8395799253</t>
   </si>
   <si>
-    <t>1.12562303145</t>
+    <t>0.22512460629</t>
   </si>
   <si>
-    <t>22.0674055445</t>
+    <t>110.33702772268583</t>
   </si>
   <si>
     <t>11.3548957674</t>
   </si>
   <si>
-    <t>0.567744788368</t>
+    <t>0.113548957674</t>
   </si>
   <si>
     <t>94.3623598267</t>
@@ -557,7 +542,7 @@
     <t>0.865172897959</t>
   </si>
   <si>
-    <t>107.196407965</t>
+    <t>107.19640796493138</t>
   </si>
   <si>
     <t>78.672219765</t>
@@ -572,7 +557,7 @@
     <t>0.722396714039</t>
   </si>
   <si>
-    <t>15.5893511122</t>
+    <t>15.58935111215739</t>
   </si>
   <si>
     <t>65.8071230427</t>
@@ -587,7 +572,7 @@
     <t>0.626498398952</t>
   </si>
   <si>
-    <t>71.6357628867</t>
+    <t>71.63576288665139</t>
   </si>
   <si>
     <t>59.4925567476</t>
@@ -599,31 +584,31 @@
     <t>44.7957750866</t>
   </si>
   <si>
-    <t>1.03142643875</t>
+    <t>0.444255514741</t>
   </si>
   <si>
-    <t>43.4308966723</t>
+    <t>100.83335738148243</t>
   </si>
   <si>
     <t>29.3585462007</t>
   </si>
   <si>
-    <t>1.46792731003</t>
+    <t>0.293585462007</t>
   </si>
   <si>
     <t>19.6813696484</t>
   </si>
   <si>
-    <t>1.02744029723</t>
+    <t>0.205488059445</t>
   </si>
   <si>
-    <t>19.1557307043</t>
+    <t>95.77865352133135</t>
   </si>
   <si>
     <t>11.7390656884</t>
   </si>
   <si>
-    <t>0.58695328442</t>
+    <t>0.117390656884</t>
   </si>
   <si>
     <t>112.926545229</t>
@@ -638,7 +623,7 @@
     <t>1.12647127081</t>
   </si>
   <si>
-    <t>110.672820709</t>
+    <t>110.67282070891973</t>
   </si>
   <si>
     <t>112.367708933</t>
@@ -653,7 +638,7 @@
     <t>1.07548382033</t>
   </si>
   <si>
-    <t>18.8102153546</t>
+    <t>18.810215354609667</t>
   </si>
   <si>
     <t>102.729055133</t>
@@ -668,7 +653,7 @@
     <t>0.977163534221</t>
   </si>
   <si>
-    <t>91.5554131404</t>
+    <t>91.5554131403965</t>
   </si>
   <si>
     <t>92.7036517111</t>
@@ -680,31 +665,31 @@
     <t>92.7519790522</t>
   </si>
   <si>
-    <t>0.948739729165</t>
+    <t>0.560562552677</t>
   </si>
   <si>
-    <t>97.7633551131</t>
+    <t>165.46231746868628</t>
   </si>
   <si>
     <t>19.4088588244</t>
   </si>
   <si>
-    <t>0.970442941218</t>
+    <t>0.194088588244</t>
   </si>
   <si>
     <t>29.7272570838</t>
   </si>
   <si>
-    <t>0.893341225331</t>
+    <t>0.178668245066</t>
   </si>
   <si>
-    <t>33.2764863423</t>
+    <t>166.38243171174264</t>
   </si>
   <si>
     <t>16.3247901889</t>
   </si>
   <si>
-    <t>0.816239509444</t>
+    <t>0.163247901889</t>
   </si>
   <si>
     <t>118.587022117</t>
@@ -719,7 +704,7 @@
     <t>1.19134380765</t>
   </si>
   <si>
-    <t>15.8510609448</t>
+    <t>15.85106094477536</t>
   </si>
   <si>
     <t>119.681739414</t>
@@ -734,7 +719,7 @@
     <t>1.12871351742</t>
   </si>
   <si>
-    <t>6.71367670908</t>
+    <t>6.713676709083113</t>
   </si>
   <si>
     <t>106.060964071</t>
@@ -749,7 +734,7 @@
     <t>0.94310847674</t>
   </si>
   <si>
-    <t>350.545355314</t>
+    <t>350.54535531353406</t>
   </si>
   <si>
     <t>82.5607312769</t>
@@ -761,31 +746,31 @@
     <t>16.4083984751</t>
   </si>
   <si>
-    <t>0.909811134714</t>
+    <t>0.51220515205</t>
   </si>
   <si>
-    <t>18.0349501661</t>
+    <t>32.03481731773118</t>
   </si>
   <si>
     <t>19.8802991332</t>
   </si>
   <si>
-    <t>0.994014956658</t>
+    <t>0.198802991332</t>
   </si>
   <si>
     <t>7.27710207779</t>
   </si>
   <si>
-    <t>0.918792011255</t>
+    <t>0.183758402251</t>
   </si>
   <si>
-    <t>7.92029315519</t>
+    <t>39.60146577593793</t>
   </si>
   <si>
     <t>16.871381317</t>
   </si>
   <si>
-    <t>0.843569065852</t>
+    <t>0.16871381317</t>
   </si>
   <si>
     <t>122.205194436</t>
@@ -800,7 +785,7 @@
     <t>0.617957336452</t>
   </si>
   <si>
-    <t>23.6114113596</t>
+    <t>23.61141135961862</t>
   </si>
   <si>
     <t>1.38627285414</t>
@@ -815,7 +800,7 @@
     <t>0.585307713956</t>
   </si>
   <si>
-    <t>13.2136671561</t>
+    <t>13.213667156086263</t>
   </si>
   <si>
     <t>115.675269937</t>
@@ -830,7 +815,7 @@
     <t>1.08921356439</t>
   </si>
   <si>
-    <t>358.313585737</t>
+    <t>358.31358573749776</t>
   </si>
   <si>
     <t>102.167442941</t>
@@ -842,31 +827,31 @@
     <t>0.535461678293</t>
   </si>
   <si>
-    <t>1.0458304801</t>
+    <t>0.617835867783</t>
   </si>
   <si>
-    <t>0.511996627067</t>
+    <t>0.8666730214531815</t>
   </si>
   <si>
     <t>21.3997306157</t>
   </si>
   <si>
-    <t>1.06998653078</t>
+    <t>0.213997306157</t>
   </si>
   <si>
     <t>5.78285862456</t>
   </si>
   <si>
-    <t>1.15393234292</t>
+    <t>0.230786468584</t>
   </si>
   <si>
-    <t>5.01143646769</t>
+    <t>25.05718233845914</t>
   </si>
   <si>
     <t>24.7575631012</t>
   </si>
   <si>
-    <t>1.23787815506</t>
+    <t>0.247575631012</t>
   </si>
   <si>
     <t>126.451960804</t>
@@ -881,7 +866,7 @@
     <t>0.638397835907</t>
   </si>
   <si>
-    <t>25.5099856655</t>
+    <t>25.50998566546629</t>
   </si>
   <si>
     <t>1.22760637697</t>
@@ -896,7 +881,7 @@
     <t>0.619358674365</t>
   </si>
   <si>
-    <t>13.1809430095</t>
+    <t>13.180943009472204</t>
   </si>
   <si>
     <t>122.644128496</t>
@@ -911,7 +896,7 @@
     <t>1.1680105124</t>
   </si>
   <si>
-    <t>323.671747915</t>
+    <t>323.6717479149449</t>
   </si>
   <si>
     <t>110.957973984</t>
@@ -923,31 +908,31 @@
     <t>376.729674438</t>
   </si>
   <si>
-    <t>1.12150121885</t>
+    <t>0.668132139705</t>
   </si>
   <si>
-    <t>335.915528318</t>
+    <t>563.8550401185021</t>
   </si>
   <si>
     <t>22.6684539571</t>
   </si>
   <si>
-    <t>1.13342269785</t>
+    <t>0.226684539571</t>
   </si>
   <si>
     <t>5.17560900202</t>
   </si>
   <si>
-    <t>1.22749577039</t>
+    <t>0.245499154077</t>
   </si>
   <si>
-    <t>4.21639660753</t>
+    <t>21.08198303767136</t>
   </si>
   <si>
     <t>26.4313768584</t>
   </si>
   <si>
-    <t>1.32156884292</t>
+    <t>0.264313768584</t>
   </si>
   <si>
     <t>98.7355963122</t>
@@ -962,7 +947,7 @@
     <t>0.993293463288</t>
   </si>
   <si>
-    <t>9.11570332779</t>
+    <t>9.115703327785301</t>
   </si>
   <si>
     <t>99.9230963453</t>
@@ -977,7 +962,7 @@
     <t>0.965623971083</t>
   </si>
   <si>
-    <t>8.57661201959</t>
+    <t>8.576612019588737</t>
   </si>
   <si>
     <t>93.2016978712</t>
@@ -992,7 +977,7 @@
     <t>0.871274650001</t>
   </si>
   <si>
-    <t>430.39610461</t>
+    <t>430.39610461036455</t>
   </si>
   <si>
     <t>81.053232129</t>
@@ -1004,31 +989,31 @@
     <t>19.3824324661</t>
   </si>
   <si>
-    <t>0.809795814566</t>
+    <t>0.486172091429</t>
   </si>
   <si>
-    <t>23.9349625146</t>
+    <t>39.86743132275808</t>
   </si>
   <si>
     <t>16.1811861568</t>
   </si>
   <si>
-    <t>0.809059307841</t>
+    <t>0.161811861568</t>
   </si>
   <si>
     <t>3.14951040186</t>
   </si>
   <si>
-    <t>0.888559439875</t>
+    <t>0.177711887975</t>
   </si>
   <si>
-    <t>3.54451290541</t>
+    <t>17.722564527051485</t>
   </si>
   <si>
     <t>19.3611914382</t>
   </si>
   <si>
-    <t>0.96805957191</t>
+    <t>0.193611914382</t>
   </si>
   <si>
     <t>68.9775533405</t>
@@ -1043,7 +1028,7 @@
     <t>0.625483117854</t>
   </si>
   <si>
-    <t>8.83495208749</t>
+    <t>8.834952087489363</t>
   </si>
   <si>
     <t>56.1190702303</t>
@@ -1058,7 +1043,7 @@
     <t>0.495348795609</t>
   </si>
   <si>
-    <t>8.62765435141</t>
+    <t>8.62765435141203</t>
   </si>
   <si>
     <t>42.9506888915</t>
@@ -1073,7 +1058,7 @@
     <t>0.375807677664</t>
   </si>
   <si>
-    <t>412.982482743</t>
+    <t>412.9824827432257</t>
   </si>
   <si>
     <t>32.2108466413</t>
@@ -1085,31 +1070,31 @@
     <t>1.18577273203</t>
   </si>
   <si>
-    <t>0.312140925074</t>
+    <t>0.19127157158</t>
   </si>
   <si>
-    <t>3.79883775813</t>
+    <t>6.199419611779313</t>
   </si>
   <si>
     <t>6.04346767469</t>
   </si>
   <si>
-    <t>0.302173383734</t>
+    <t>0.0604346767469</t>
   </si>
   <si>
     <t>1.07121562628</t>
   </si>
   <si>
-    <t>0.411993991721</t>
+    <t>0.0823987983442</t>
   </si>
   <si>
-    <t>2.6000758453</t>
+    <t>13.000379226509798</t>
   </si>
   <si>
     <t>10.4362919942</t>
   </si>
   <si>
-    <t>0.521814599708</t>
+    <t>0.104362919942</t>
   </si>
   <si>
     <t>57.183275758</t>
@@ -1124,7 +1109,7 @@
     <t>0.605338350236</t>
   </si>
   <si>
-    <t>9.20031910404</t>
+    <t>9.20031910403732</t>
   </si>
   <si>
     <t>63.8843942893</t>
@@ -1139,7 +1124,7 @@
     <t>0.641496894545</t>
   </si>
   <si>
-    <t>9.22487510792</t>
+    <t>9.224875107924081</t>
   </si>
   <si>
     <t>64.4149846196</t>
@@ -1154,7 +1139,7 @@
     <t>0.605762283589</t>
   </si>
   <si>
-    <t>432.887077392</t>
+    <t>432.8870773921357</t>
   </si>
   <si>
     <t>56.7374720981</t>
@@ -1166,31 +1151,31 @@
     <t>12.2625242993</t>
   </si>
   <si>
-    <t>0.555456542641</t>
+    <t>0.338041196921</t>
   </si>
   <si>
-    <t>22.0764782804</t>
+    <t>36.27523630557165</t>
   </si>
   <si>
     <t>10.870767286</t>
   </si>
   <si>
-    <t>0.5435383643</t>
+    <t>0.10870767286</t>
   </si>
   <si>
     <t>1.88520304167</t>
   </si>
   <si>
-    <t>0.588405435106</t>
+    <t>0.117681087021</t>
   </si>
   <si>
-    <t>3.20391847048</t>
+    <t>16.019592352410317</t>
   </si>
   <si>
     <t>12.6654501182</t>
   </si>
   <si>
-    <t>0.633272505912</t>
+    <t>0.126654501182</t>
   </si>
 </sst>
 </file>
@@ -55180,7 +55165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J144"/>
+  <dimension ref="A1:J145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55189,3996 +55174,4010 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2.353</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.572</v>
-      </c>
-      <c r="D2" t="n">
-        <v>153579</v>
-      </c>
-      <c r="E2" t="n">
-        <v>51369</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" t="s">
-        <v>68</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="s"/>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s"/>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s"/>
       <c r="I2" t="s"/>
       <c r="J2" t="s"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="n">
-        <v>3.054</v>
+        <v>2.41</v>
       </c>
       <c r="B3" t="n">
-        <v>2.978</v>
+        <v>2.353</v>
       </c>
       <c r="C3" t="n">
-        <v>3.113</v>
+        <v>2.572</v>
       </c>
       <c r="D3" t="n">
-        <v>2380</v>
+        <v>153579</v>
       </c>
       <c r="E3" t="n">
-        <v>551</v>
+        <v>51369</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="H3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="n">
-        <v>3.995</v>
+        <v>3.054</v>
       </c>
       <c r="B4" t="n">
-        <v>3.925</v>
+        <v>2.978</v>
       </c>
       <c r="C4" t="n">
-        <v>4.121</v>
+        <v>3.113</v>
       </c>
       <c r="D4" t="n">
-        <v>154529</v>
+        <v>2380</v>
       </c>
       <c r="E4" t="n">
-        <v>57008</v>
+        <v>551</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="n">
-        <v>5.26</v>
+        <v>3.995</v>
       </c>
       <c r="B5" t="n">
-        <v>5.213</v>
+        <v>3.925</v>
       </c>
       <c r="C5" t="n">
-        <v>5.358</v>
+        <v>4.121</v>
       </c>
       <c r="D5" t="n">
-        <v>1559</v>
+        <v>154529</v>
       </c>
       <c r="E5" t="n">
-        <v>598</v>
+        <v>57008</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" t="s">
-        <v>76</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="n">
-        <v>6.867</v>
+        <v>5.26</v>
       </c>
       <c r="B6" t="n">
-        <v>6.772</v>
+        <v>5.213</v>
       </c>
       <c r="C6" t="n">
-        <v>6.963</v>
+        <v>5.358</v>
       </c>
       <c r="D6" t="n">
-        <v>154964</v>
+        <v>1559</v>
       </c>
       <c r="E6" t="n">
-        <v>55544</v>
+        <v>598</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="n">
-        <v>9.141999999999999</v>
+        <v>6.867</v>
       </c>
       <c r="B7" t="n">
-        <v>9.026</v>
+        <v>6.772</v>
       </c>
       <c r="C7" t="n">
-        <v>9.244999999999999</v>
+        <v>6.963</v>
       </c>
       <c r="D7" t="n">
-        <v>2559</v>
+        <v>154964</v>
       </c>
       <c r="E7" t="n">
-        <v>699</v>
+        <v>55544</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="H7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="n">
-        <v>10.882</v>
+        <v>9.141999999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>10.795</v>
+        <v>9.026</v>
       </c>
       <c r="C8" t="n">
-        <v>10.963</v>
+        <v>9.244999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>170500</v>
+        <v>2559</v>
       </c>
       <c r="E8" t="n">
-        <v>85412</v>
+        <v>699</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="n">
-        <v>12.051</v>
+        <v>10.882</v>
       </c>
       <c r="B9" t="n">
-        <v>12.031</v>
+        <v>10.795</v>
       </c>
       <c r="C9" t="n">
-        <v>12.134</v>
+        <v>10.963</v>
       </c>
       <c r="D9" t="n">
-        <v>4892</v>
+        <v>170500</v>
       </c>
       <c r="E9" t="n">
-        <v>1734</v>
+        <v>85412</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" t="s">
-        <v>86</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="n">
-        <v>12.871</v>
+        <v>12.051</v>
       </c>
       <c r="B10" t="n">
-        <v>12.829</v>
+        <v>12.031</v>
       </c>
       <c r="C10" t="n">
-        <v>12.932</v>
+        <v>12.134</v>
       </c>
       <c r="D10" t="n">
-        <v>89501</v>
+        <v>4892</v>
       </c>
       <c r="E10" t="n">
-        <v>44651</v>
+        <v>1734</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="n">
-        <v>13.575</v>
+        <v>12.871</v>
       </c>
       <c r="B11" t="n">
-        <v>13.525</v>
+        <v>12.829</v>
       </c>
       <c r="C11" t="n">
-        <v>13.613</v>
+        <v>12.932</v>
       </c>
       <c r="D11" t="n">
-        <v>27807</v>
+        <v>89501</v>
       </c>
       <c r="E11" t="n">
-        <v>16360</v>
+        <v>44651</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J11" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="n">
+        <v>13.575</v>
+      </c>
+      <c r="B12" t="n">
+        <v>13.525</v>
+      </c>
+      <c r="C12" t="n">
+        <v>13.613</v>
+      </c>
+      <c r="D12" t="n">
+        <v>27807</v>
+      </c>
+      <c r="E12" t="n">
+        <v>16360</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="n">
         <v>14.19</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B13" t="n">
         <v>14.155</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C13" t="n">
         <v>14.239</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D13" t="n">
         <v>40763</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E13" t="n">
         <v>22639</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>42</v>
       </c>
-      <c r="G12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" t="s">
+        <v>88</v>
+      </c>
       <c r="I13" t="s"/>
       <c r="J13" t="s"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2.348</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.567</v>
-      </c>
-      <c r="D14" t="n">
-        <v>108255</v>
-      </c>
-      <c r="E14" t="n">
-        <v>33487</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" t="s">
-        <v>95</v>
-      </c>
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="s"/>
+      <c r="E14" t="s"/>
+      <c r="F14" t="s"/>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s"/>
       <c r="I14" t="s"/>
       <c r="J14" t="s"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="n">
-        <v>3.06</v>
+        <v>2.42</v>
       </c>
       <c r="B15" t="n">
-        <v>2.959</v>
+        <v>2.348</v>
       </c>
       <c r="C15" t="n">
-        <v>3.109</v>
+        <v>2.567</v>
       </c>
       <c r="D15" t="n">
-        <v>1620</v>
+        <v>108255</v>
       </c>
       <c r="E15" t="n">
-        <v>371</v>
+        <v>33487</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>97</v>
-      </c>
-      <c r="J15" t="s">
-        <v>98</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="H15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="n">
-        <v>4.001</v>
+        <v>3.06</v>
       </c>
       <c r="B16" t="n">
-        <v>3.925</v>
+        <v>2.959</v>
       </c>
       <c r="C16" t="n">
-        <v>4.126</v>
+        <v>3.109</v>
       </c>
       <c r="D16" t="n">
-        <v>120125</v>
+        <v>1620</v>
       </c>
       <c r="E16" t="n">
-        <v>42128</v>
+        <v>371</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" t="s"/>
-      <c r="J16" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="n">
-        <v>5.265</v>
+        <v>4.001</v>
       </c>
       <c r="B17" t="n">
-        <v>5.213</v>
+        <v>3.925</v>
       </c>
       <c r="C17" t="n">
-        <v>5.353</v>
+        <v>4.126</v>
       </c>
       <c r="D17" t="n">
-        <v>1238</v>
+        <v>120125</v>
       </c>
       <c r="E17" t="n">
-        <v>474</v>
+        <v>42128</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>102</v>
-      </c>
-      <c r="J17" t="s">
-        <v>103</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="H17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="n">
-        <v>6.869</v>
+        <v>5.265</v>
       </c>
       <c r="B18" t="n">
-        <v>6.767</v>
+        <v>5.213</v>
       </c>
       <c r="C18" t="n">
-        <v>6.968</v>
+        <v>5.353</v>
       </c>
       <c r="D18" t="n">
-        <v>126027</v>
+        <v>1238</v>
       </c>
       <c r="E18" t="n">
-        <v>43845</v>
+        <v>474</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" t="s"/>
-      <c r="J18" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="n">
-        <v>9.143000000000001</v>
+        <v>6.869</v>
       </c>
       <c r="B19" t="n">
-        <v>9.035</v>
+        <v>6.767</v>
       </c>
       <c r="C19" t="n">
-        <v>9.222</v>
+        <v>6.968</v>
       </c>
       <c r="D19" t="n">
-        <v>1904</v>
+        <v>126027</v>
       </c>
       <c r="E19" t="n">
-        <v>525</v>
+        <v>43845</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>107</v>
-      </c>
-      <c r="J19" t="s">
-        <v>108</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="H19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="n">
+        <v>9.143000000000001</v>
+      </c>
+      <c r="B20" t="n">
+        <v>9.035</v>
+      </c>
+      <c r="C20" t="n">
+        <v>9.222</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1904</v>
+      </c>
+      <c r="E20" t="n">
+        <v>525</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="n">
         <v>10.882</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B21" t="n">
         <v>10.79</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C21" t="n">
         <v>10.958</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D21" t="n">
         <v>144247</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E21" t="n">
         <v>72652</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>31</v>
       </c>
-      <c r="G20" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" t="s">
-        <v>110</v>
-      </c>
-      <c r="I20" t="s"/>
-      <c r="J20" t="s"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s"/>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
-      <c r="D21" t="s"/>
-      <c r="E21" t="s"/>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s"/>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="s"/>
+      <c r="E22" t="s"/>
+      <c r="F22" t="s">
         <v>33</v>
       </c>
-      <c r="G21" t="s">
-        <v>111</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>112</v>
-      </c>
-      <c r="J21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="B22" t="n">
-        <v>12.829</v>
-      </c>
-      <c r="C22" t="n">
-        <v>12.932</v>
-      </c>
-      <c r="D22" t="n">
-        <v>70751</v>
-      </c>
-      <c r="E22" t="n">
-        <v>34733</v>
-      </c>
-      <c r="F22" t="s">
-        <v>38</v>
-      </c>
       <c r="G22" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" t="s">
-        <v>115</v>
-      </c>
-      <c r="I22" t="s"/>
-      <c r="J22" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="n">
-        <v>13.575</v>
+        <v>12.87</v>
       </c>
       <c r="B23" t="n">
-        <v>13.529</v>
+        <v>12.829</v>
       </c>
       <c r="C23" t="n">
-        <v>13.618</v>
+        <v>12.932</v>
       </c>
       <c r="D23" t="n">
-        <v>24119</v>
+        <v>70751</v>
       </c>
       <c r="E23" t="n">
-        <v>13877</v>
+        <v>34733</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>117</v>
-      </c>
-      <c r="J23" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="H23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="n">
+        <v>13.575</v>
+      </c>
+      <c r="B24" t="n">
+        <v>13.529</v>
+      </c>
+      <c r="C24" t="n">
+        <v>13.618</v>
+      </c>
+      <c r="D24" t="n">
+        <v>24119</v>
+      </c>
+      <c r="E24" t="n">
+        <v>13877</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="n">
         <v>14.19</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B25" t="n">
         <v>14.15</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C25" t="n">
         <v>14.239</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D25" t="n">
         <v>33767</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E25" t="n">
         <v>18060</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>42</v>
       </c>
-      <c r="G24" t="s">
-        <v>119</v>
-      </c>
-      <c r="H24" t="s">
-        <v>120</v>
-      </c>
-      <c r="I24" t="s"/>
-      <c r="J24" t="s"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
-      <c r="D25" t="s"/>
-      <c r="E25" t="s"/>
-      <c r="F25" t="s"/>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s"/>
+      <c r="G25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" t="s">
+        <v>115</v>
+      </c>
       <c r="I25" t="s"/>
       <c r="J25" t="s"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="B26" t="n">
-        <v>2.348</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2.558</v>
-      </c>
-      <c r="D26" t="n">
-        <v>148937</v>
-      </c>
-      <c r="E26" t="n">
-        <v>50502</v>
-      </c>
-      <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>121</v>
-      </c>
-      <c r="H26" t="s">
-        <v>122</v>
-      </c>
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="s"/>
+      <c r="E26" t="s"/>
+      <c r="F26" t="s"/>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s"/>
       <c r="I26" t="s"/>
       <c r="J26" t="s"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="n">
-        <v>3.096</v>
+        <v>2.41</v>
       </c>
       <c r="B27" t="n">
-        <v>3.002</v>
+        <v>2.348</v>
       </c>
       <c r="C27" t="n">
-        <v>3.137</v>
+        <v>2.558</v>
       </c>
       <c r="D27" t="n">
-        <v>6036</v>
+        <v>148937</v>
       </c>
       <c r="E27" t="n">
-        <v>1456</v>
+        <v>50502</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>123</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>124</v>
-      </c>
-      <c r="J27" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="H27" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="n">
-        <v>3.994</v>
+        <v>3.096</v>
       </c>
       <c r="B28" t="n">
-        <v>3.926</v>
+        <v>3.002</v>
       </c>
       <c r="C28" t="n">
-        <v>4.122</v>
+        <v>3.137</v>
       </c>
       <c r="D28" t="n">
-        <v>166361</v>
+        <v>6036</v>
       </c>
       <c r="E28" t="n">
-        <v>62206</v>
+        <v>1456</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28" t="s">
-        <v>127</v>
-      </c>
-      <c r="I28" t="s"/>
-      <c r="J28" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>119</v>
+      </c>
+      <c r="J28" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="n">
-        <v>5.26</v>
+        <v>3.994</v>
       </c>
       <c r="B29" t="n">
-        <v>5.218</v>
+        <v>3.926</v>
       </c>
       <c r="C29" t="n">
-        <v>5.363</v>
+        <v>4.122</v>
       </c>
       <c r="D29" t="n">
-        <v>1767</v>
+        <v>166361</v>
       </c>
       <c r="E29" t="n">
-        <v>645</v>
+        <v>62206</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>128</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>129</v>
-      </c>
-      <c r="J29" t="s">
-        <v>130</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="H29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="n">
-        <v>6.867</v>
+        <v>5.26</v>
       </c>
       <c r="B30" t="n">
-        <v>6.763</v>
+        <v>5.218</v>
       </c>
       <c r="C30" t="n">
-        <v>6.978</v>
+        <v>5.363</v>
       </c>
       <c r="D30" t="n">
-        <v>173467</v>
+        <v>1767</v>
       </c>
       <c r="E30" t="n">
-        <v>62508</v>
+        <v>645</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>131</v>
-      </c>
-      <c r="H30" t="s">
-        <v>132</v>
-      </c>
-      <c r="I30" t="s"/>
-      <c r="J30" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J30" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="n">
-        <v>9.140000000000001</v>
+        <v>6.867</v>
       </c>
       <c r="B31" t="n">
-        <v>9.031000000000001</v>
+        <v>6.763</v>
       </c>
       <c r="C31" t="n">
-        <v>9.227</v>
+        <v>6.978</v>
       </c>
       <c r="D31" t="n">
-        <v>3392</v>
+        <v>173467</v>
       </c>
       <c r="E31" t="n">
-        <v>1003</v>
+        <v>62508</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G31" t="s">
-        <v>133</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>134</v>
-      </c>
-      <c r="J31" t="s">
-        <v>135</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="H31" t="s">
+        <v>127</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="n">
-        <v>10.882</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="B32" t="n">
-        <v>10.786</v>
+        <v>9.031000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>10.958</v>
+        <v>9.227</v>
       </c>
       <c r="D32" t="n">
-        <v>182808</v>
+        <v>3392</v>
       </c>
       <c r="E32" t="n">
-        <v>91585</v>
+        <v>1003</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G32" t="s">
-        <v>136</v>
-      </c>
-      <c r="H32" t="s">
-        <v>137</v>
-      </c>
-      <c r="I32" t="s"/>
-      <c r="J32" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>129</v>
+      </c>
+      <c r="J32" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="n">
-        <v>12.11</v>
+        <v>10.882</v>
       </c>
       <c r="B33" t="n">
-        <v>12.046</v>
+        <v>10.786</v>
       </c>
       <c r="C33" t="n">
-        <v>12.144</v>
+        <v>10.958</v>
       </c>
       <c r="D33" t="n">
-        <v>4408</v>
+        <v>182808</v>
       </c>
       <c r="E33" t="n">
-        <v>1220</v>
+        <v>91585</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>138</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>139</v>
-      </c>
-      <c r="J33" t="s">
-        <v>140</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="H33" t="s">
+        <v>132</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="n">
-        <v>12.862</v>
+        <v>12.11</v>
       </c>
       <c r="B34" t="n">
-        <v>12.778</v>
+        <v>12.046</v>
       </c>
       <c r="C34" t="n">
-        <v>12.932</v>
+        <v>12.144</v>
       </c>
       <c r="D34" t="n">
-        <v>44804</v>
+        <v>4408</v>
       </c>
       <c r="E34" t="n">
-        <v>23799</v>
+        <v>1220</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>141</v>
-      </c>
-      <c r="H34" t="s">
-        <v>142</v>
-      </c>
-      <c r="I34" t="s"/>
-      <c r="J34" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>134</v>
+      </c>
+      <c r="J34" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="n">
-        <v>13.575</v>
+        <v>12.862</v>
       </c>
       <c r="B35" t="n">
-        <v>13.53</v>
+        <v>12.778</v>
       </c>
       <c r="C35" t="n">
-        <v>13.623</v>
+        <v>12.932</v>
       </c>
       <c r="D35" t="n">
-        <v>37306</v>
+        <v>44804</v>
       </c>
       <c r="E35" t="n">
-        <v>21484</v>
+        <v>23799</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>143</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>144</v>
-      </c>
-      <c r="J35" t="s">
-        <v>145</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="H35" t="s">
+        <v>137</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="n">
+        <v>13.575</v>
+      </c>
+      <c r="B36" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="C36" t="n">
+        <v>13.623</v>
+      </c>
+      <c r="D36" t="n">
+        <v>37306</v>
+      </c>
+      <c r="E36" t="n">
+        <v>21484</v>
+      </c>
+      <c r="F36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s">
+        <v>138</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>139</v>
+      </c>
+      <c r="J36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="n">
         <v>14.189</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B37" t="n">
         <v>14.08</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C37" t="n">
         <v>14.239</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D37" t="n">
         <v>47300</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E37" t="n">
         <v>22847</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>42</v>
       </c>
-      <c r="G36" t="s">
-        <v>146</v>
-      </c>
-      <c r="H36" t="s">
-        <v>147</v>
-      </c>
-      <c r="I36" t="s"/>
-      <c r="J36" t="s"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
-      <c r="D37" t="s"/>
-      <c r="E37" t="s"/>
-      <c r="F37" t="s"/>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s"/>
+      <c r="G37" t="s">
+        <v>141</v>
+      </c>
+      <c r="H37" t="s">
+        <v>142</v>
+      </c>
       <c r="I37" t="s"/>
       <c r="J37" t="s"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" t="n">
-        <v>2.417</v>
-      </c>
-      <c r="B38" t="n">
-        <v>2.348</v>
-      </c>
-      <c r="C38" t="n">
-        <v>2.558</v>
-      </c>
-      <c r="D38" t="n">
-        <v>197372</v>
-      </c>
-      <c r="E38" t="n">
-        <v>63522</v>
-      </c>
-      <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s">
-        <v>148</v>
-      </c>
-      <c r="H38" t="s">
-        <v>149</v>
-      </c>
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="s"/>
+      <c r="E38" t="s"/>
+      <c r="F38" t="s"/>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s"/>
       <c r="I38" t="s"/>
       <c r="J38" t="s"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="n">
-        <v>3.06</v>
+        <v>2.417</v>
       </c>
       <c r="B39" t="n">
-        <v>2.982</v>
+        <v>2.348</v>
       </c>
       <c r="C39" t="n">
-        <v>3.136</v>
+        <v>2.558</v>
       </c>
       <c r="D39" t="n">
-        <v>197184</v>
+        <v>197372</v>
       </c>
       <c r="E39" t="n">
-        <v>66097</v>
+        <v>63522</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>150</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>151</v>
-      </c>
-      <c r="J39" t="s">
-        <v>152</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H39" t="s">
+        <v>144</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>3.06</v>
       </c>
       <c r="B40" t="n">
-        <v>3.92</v>
+        <v>2.982</v>
       </c>
       <c r="C40" t="n">
-        <v>4.121</v>
+        <v>3.136</v>
       </c>
       <c r="D40" t="n">
-        <v>179281</v>
+        <v>197184</v>
       </c>
       <c r="E40" t="n">
-        <v>63642</v>
+        <v>66097</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G40" t="s">
-        <v>153</v>
-      </c>
-      <c r="H40" t="s">
-        <v>154</v>
-      </c>
-      <c r="I40" t="s"/>
-      <c r="J40" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>146</v>
+      </c>
+      <c r="J40" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="n">
-        <v>5.264</v>
+        <v>4</v>
       </c>
       <c r="B41" t="n">
-        <v>5.204</v>
+        <v>3.92</v>
       </c>
       <c r="C41" t="n">
-        <v>5.381</v>
+        <v>4.121</v>
       </c>
       <c r="D41" t="n">
-        <v>41778</v>
+        <v>179281</v>
       </c>
       <c r="E41" t="n">
-        <v>15522</v>
+        <v>63642</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G41" t="s">
-        <v>155</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>156</v>
-      </c>
-      <c r="J41" t="s">
-        <v>157</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="H41" t="s">
+        <v>149</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="n">
-        <v>6.871</v>
+        <v>5.264</v>
       </c>
       <c r="B42" t="n">
-        <v>6.767</v>
+        <v>5.204</v>
       </c>
       <c r="C42" t="n">
-        <v>6.963</v>
+        <v>5.381</v>
       </c>
       <c r="D42" t="n">
-        <v>161634</v>
+        <v>41778</v>
       </c>
       <c r="E42" t="n">
-        <v>56742</v>
+        <v>15522</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G42" t="s">
-        <v>158</v>
-      </c>
-      <c r="H42" t="s">
-        <v>159</v>
-      </c>
-      <c r="I42" t="s"/>
-      <c r="J42" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>151</v>
+      </c>
+      <c r="J42" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="n">
-        <v>9.154999999999999</v>
+        <v>6.871</v>
       </c>
       <c r="B43" t="n">
-        <v>9.021000000000001</v>
+        <v>6.767</v>
       </c>
       <c r="C43" t="n">
-        <v>9.259</v>
+        <v>6.963</v>
       </c>
       <c r="D43" t="n">
-        <v>195484</v>
+        <v>161634</v>
       </c>
       <c r="E43" t="n">
-        <v>59874</v>
+        <v>56742</v>
       </c>
       <c r="F43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G43" t="s">
-        <v>160</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>161</v>
-      </c>
-      <c r="J43" t="s">
-        <v>162</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="H43" t="s">
+        <v>154</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="n">
-        <v>10.883</v>
+        <v>9.154999999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>10.785</v>
+        <v>9.021000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>10.967</v>
+        <v>9.259</v>
       </c>
       <c r="D44" t="n">
-        <v>161583</v>
+        <v>195484</v>
       </c>
       <c r="E44" t="n">
-        <v>81101</v>
+        <v>59874</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G44" t="s">
-        <v>163</v>
-      </c>
-      <c r="H44" t="s">
-        <v>164</v>
-      </c>
-      <c r="I44" t="s"/>
-      <c r="J44" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>156</v>
+      </c>
+      <c r="J44" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="n">
-        <v>12.016</v>
+        <v>10.883</v>
       </c>
       <c r="B45" t="n">
-        <v>11.998</v>
+        <v>10.785</v>
       </c>
       <c r="C45" t="n">
-        <v>12.129</v>
+        <v>10.967</v>
       </c>
       <c r="D45" t="n">
-        <v>215835</v>
+        <v>161583</v>
       </c>
       <c r="E45" t="n">
-        <v>126414</v>
+        <v>81101</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>165</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>166</v>
-      </c>
-      <c r="J45" t="s">
-        <v>167</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="H45" t="s">
+        <v>159</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="n">
-        <v>12.872</v>
+        <v>12.016</v>
       </c>
       <c r="B46" t="n">
-        <v>12.829</v>
+        <v>11.998</v>
       </c>
       <c r="C46" t="n">
-        <v>12.932</v>
+        <v>12.129</v>
       </c>
       <c r="D46" t="n">
-        <v>86489</v>
+        <v>215835</v>
       </c>
       <c r="E46" t="n">
-        <v>44668</v>
+        <v>126414</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>168</v>
-      </c>
-      <c r="H46" t="s">
-        <v>169</v>
-      </c>
-      <c r="I46" t="s"/>
-      <c r="J46" t="s"/>
+        <v>160</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>161</v>
+      </c>
+      <c r="J46" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="n">
-        <v>13.576</v>
+        <v>12.872</v>
       </c>
       <c r="B47" t="n">
-        <v>13.543</v>
+        <v>12.829</v>
       </c>
       <c r="C47" t="n">
-        <v>13.632</v>
+        <v>12.932</v>
       </c>
       <c r="D47" t="n">
-        <v>72811</v>
+        <v>86489</v>
       </c>
       <c r="E47" t="n">
-        <v>46310</v>
+        <v>44668</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>170</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>171</v>
-      </c>
-      <c r="J47" t="s">
-        <v>172</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="H47" t="s">
+        <v>164</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="n">
+        <v>13.576</v>
+      </c>
+      <c r="B48" t="n">
+        <v>13.543</v>
+      </c>
+      <c r="C48" t="n">
+        <v>13.632</v>
+      </c>
+      <c r="D48" t="n">
+        <v>72811</v>
+      </c>
+      <c r="E48" t="n">
+        <v>46310</v>
+      </c>
+      <c r="F48" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" t="s">
+        <v>165</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>166</v>
+      </c>
+      <c r="J48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="n">
         <v>14.19</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B49" t="n">
         <v>14.159</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C49" t="n">
         <v>14.243</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D49" t="n">
         <v>23350</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E49" t="n">
         <v>15587</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F49" t="s">
         <v>42</v>
       </c>
-      <c r="G48" t="s">
-        <v>173</v>
-      </c>
-      <c r="H48" t="s">
-        <v>174</v>
-      </c>
-      <c r="I48" t="s"/>
-      <c r="J48" t="s"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
-      <c r="D49" t="s"/>
-      <c r="E49" t="s"/>
-      <c r="F49" t="s"/>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s"/>
+      <c r="G49" t="s">
+        <v>168</v>
+      </c>
+      <c r="H49" t="s">
+        <v>169</v>
+      </c>
       <c r="I49" t="s"/>
       <c r="J49" t="s"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="B50" t="n">
-        <v>2.353</v>
-      </c>
-      <c r="C50" t="n">
-        <v>2.563</v>
-      </c>
-      <c r="D50" t="n">
-        <v>150717</v>
-      </c>
-      <c r="E50" t="n">
-        <v>51851</v>
-      </c>
-      <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>175</v>
-      </c>
-      <c r="H50" t="s">
-        <v>176</v>
-      </c>
+      <c r="A50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="s"/>
+      <c r="E50" t="s"/>
+      <c r="F50" t="s"/>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s"/>
       <c r="I50" t="s"/>
       <c r="J50" t="s"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="n">
-        <v>3.052</v>
+        <v>2.41</v>
       </c>
       <c r="B51" t="n">
-        <v>2.978</v>
+        <v>2.353</v>
       </c>
       <c r="C51" t="n">
-        <v>3.127</v>
+        <v>2.563</v>
       </c>
       <c r="D51" t="n">
-        <v>146010</v>
+        <v>150717</v>
       </c>
       <c r="E51" t="n">
-        <v>52154</v>
+        <v>51851</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>177</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>178</v>
-      </c>
-      <c r="J51" t="s">
-        <v>179</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="H51" t="s">
+        <v>171</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="n">
-        <v>3.993</v>
+        <v>3.052</v>
       </c>
       <c r="B52" t="n">
-        <v>3.911</v>
+        <v>2.978</v>
       </c>
       <c r="C52" t="n">
-        <v>4.107</v>
+        <v>3.127</v>
       </c>
       <c r="D52" t="n">
-        <v>143296</v>
+        <v>146010</v>
       </c>
       <c r="E52" t="n">
-        <v>53372</v>
+        <v>52154</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G52" t="s">
-        <v>180</v>
-      </c>
-      <c r="H52" t="s">
-        <v>181</v>
-      </c>
-      <c r="I52" t="s"/>
-      <c r="J52" t="s"/>
+        <v>172</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>173</v>
+      </c>
+      <c r="J52" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="n">
-        <v>5.258</v>
+        <v>3.993</v>
       </c>
       <c r="B53" t="n">
-        <v>5.204</v>
+        <v>3.911</v>
       </c>
       <c r="C53" t="n">
-        <v>5.381</v>
+        <v>4.107</v>
       </c>
       <c r="D53" t="n">
-        <v>25948</v>
+        <v>143296</v>
       </c>
       <c r="E53" t="n">
-        <v>10047</v>
+        <v>53372</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>182</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>183</v>
-      </c>
-      <c r="J53" t="s">
-        <v>184</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="H53" t="s">
+        <v>176</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="n">
-        <v>6.865</v>
+        <v>5.258</v>
       </c>
       <c r="B54" t="n">
-        <v>6.763</v>
+        <v>5.204</v>
       </c>
       <c r="C54" t="n">
-        <v>6.959</v>
+        <v>5.381</v>
       </c>
       <c r="D54" t="n">
-        <v>136990</v>
+        <v>25948</v>
       </c>
       <c r="E54" t="n">
-        <v>49403</v>
+        <v>10047</v>
       </c>
       <c r="F54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G54" t="s">
-        <v>185</v>
-      </c>
-      <c r="H54" t="s">
-        <v>186</v>
-      </c>
-      <c r="I54" t="s"/>
-      <c r="J54" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>178</v>
+      </c>
+      <c r="J54" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="n">
-        <v>9.146000000000001</v>
+        <v>6.865</v>
       </c>
       <c r="B55" t="n">
-        <v>9.007</v>
+        <v>6.763</v>
       </c>
       <c r="C55" t="n">
-        <v>9.25</v>
+        <v>6.959</v>
       </c>
       <c r="D55" t="n">
-        <v>113124</v>
+        <v>136990</v>
       </c>
       <c r="E55" t="n">
-        <v>34878</v>
+        <v>49403</v>
       </c>
       <c r="F55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G55" t="s">
-        <v>187</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>188</v>
-      </c>
-      <c r="J55" t="s">
-        <v>189</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="H55" t="s">
+        <v>181</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="n">
-        <v>10.88</v>
+        <v>9.146000000000001</v>
       </c>
       <c r="B56" t="n">
-        <v>10.785</v>
+        <v>9.007</v>
       </c>
       <c r="C56" t="n">
-        <v>10.963</v>
+        <v>9.25</v>
       </c>
       <c r="D56" t="n">
-        <v>141914</v>
+        <v>113124</v>
       </c>
       <c r="E56" t="n">
-        <v>71756</v>
+        <v>34878</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>190</v>
-      </c>
-      <c r="H56" t="s">
-        <v>191</v>
-      </c>
-      <c r="I56" t="s"/>
-      <c r="J56" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>183</v>
+      </c>
+      <c r="J56" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="n">
-        <v>12.011</v>
+        <v>10.88</v>
       </c>
       <c r="B57" t="n">
-        <v>11.999</v>
+        <v>10.785</v>
       </c>
       <c r="C57" t="n">
-        <v>12.129</v>
+        <v>10.963</v>
       </c>
       <c r="D57" t="n">
-        <v>118962</v>
+        <v>141914</v>
       </c>
       <c r="E57" t="n">
-        <v>79812</v>
+        <v>71756</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>192</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>193</v>
-      </c>
-      <c r="J57" t="s">
-        <v>194</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="H57" t="s">
+        <v>186</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="n">
-        <v>12.87</v>
+        <v>12.011</v>
       </c>
       <c r="B58" t="n">
-        <v>12.829</v>
+        <v>11.999</v>
       </c>
       <c r="C58" t="n">
-        <v>12.932</v>
+        <v>12.129</v>
       </c>
       <c r="D58" t="n">
-        <v>75414</v>
+        <v>118962</v>
       </c>
       <c r="E58" t="n">
-        <v>37315</v>
+        <v>79812</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>195</v>
-      </c>
-      <c r="H58" t="s">
-        <v>196</v>
-      </c>
-      <c r="I58" t="s"/>
-      <c r="J58" t="s"/>
+        <v>187</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>188</v>
+      </c>
+      <c r="J58" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="n">
-        <v>13.575</v>
+        <v>12.87</v>
       </c>
       <c r="B59" t="n">
-        <v>13.525</v>
+        <v>12.829</v>
       </c>
       <c r="C59" t="n">
-        <v>13.632</v>
+        <v>12.932</v>
       </c>
       <c r="D59" t="n">
-        <v>57691</v>
+        <v>75414</v>
       </c>
       <c r="E59" t="n">
-        <v>34699</v>
+        <v>37315</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>197</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>198</v>
-      </c>
-      <c r="J59" t="s">
-        <v>199</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="H59" t="s">
+        <v>191</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="n">
+        <v>13.575</v>
+      </c>
+      <c r="B60" t="n">
+        <v>13.525</v>
+      </c>
+      <c r="C60" t="n">
+        <v>13.632</v>
+      </c>
+      <c r="D60" t="n">
+        <v>57691</v>
+      </c>
+      <c r="E60" t="n">
+        <v>34699</v>
+      </c>
+      <c r="F60" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" t="s">
+        <v>192</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>193</v>
+      </c>
+      <c r="J60" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="n">
         <v>14.19</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B61" t="n">
         <v>14.155</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C61" t="n">
         <v>14.243</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D61" t="n">
         <v>24140</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E61" t="n">
         <v>15563</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F61" t="s">
         <v>42</v>
       </c>
-      <c r="G60" t="s">
-        <v>200</v>
-      </c>
-      <c r="H60" t="s">
-        <v>201</v>
-      </c>
-      <c r="I60" t="s"/>
-      <c r="J60" t="s"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
-      <c r="D61" t="s"/>
-      <c r="E61" t="s"/>
-      <c r="F61" t="s"/>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s"/>
+      <c r="G61" t="s">
+        <v>195</v>
+      </c>
+      <c r="H61" t="s">
+        <v>196</v>
+      </c>
       <c r="I61" t="s"/>
       <c r="J61" t="s"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" t="n">
-        <v>2.415</v>
-      </c>
-      <c r="B62" t="n">
-        <v>2.348</v>
-      </c>
-      <c r="C62" t="n">
-        <v>2.558</v>
-      </c>
-      <c r="D62" t="n">
-        <v>180368</v>
-      </c>
-      <c r="E62" t="n">
-        <v>58806</v>
-      </c>
-      <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" t="s">
-        <v>202</v>
-      </c>
-      <c r="H62" t="s">
-        <v>203</v>
-      </c>
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="s"/>
+      <c r="E62" t="s"/>
+      <c r="F62" t="s"/>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s"/>
       <c r="I62" t="s"/>
       <c r="J62" t="s"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="n">
-        <v>3.058</v>
+        <v>2.415</v>
       </c>
       <c r="B63" t="n">
-        <v>2.992</v>
+        <v>2.348</v>
       </c>
       <c r="C63" t="n">
-        <v>3.136</v>
+        <v>2.558</v>
       </c>
       <c r="D63" t="n">
-        <v>196273</v>
+        <v>180368</v>
       </c>
       <c r="E63" t="n">
-        <v>65441</v>
+        <v>58806</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G63" t="s">
-        <v>204</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>205</v>
-      </c>
-      <c r="J63" t="s">
-        <v>206</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="H63" t="s">
+        <v>198</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s"/>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="n">
-        <v>3.999</v>
+        <v>3.058</v>
       </c>
       <c r="B64" t="n">
-        <v>3.921</v>
+        <v>2.992</v>
       </c>
       <c r="C64" t="n">
-        <v>4.126</v>
+        <v>3.136</v>
       </c>
       <c r="D64" t="n">
-        <v>204670</v>
+        <v>196273</v>
       </c>
       <c r="E64" t="n">
-        <v>73779</v>
+        <v>65441</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G64" t="s">
-        <v>207</v>
-      </c>
-      <c r="H64" t="s">
-        <v>208</v>
-      </c>
-      <c r="I64" t="s"/>
-      <c r="J64" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>200</v>
+      </c>
+      <c r="J64" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="n">
-        <v>5.263</v>
+        <v>3.999</v>
       </c>
       <c r="B65" t="n">
-        <v>5.208</v>
+        <v>3.921</v>
       </c>
       <c r="C65" t="n">
-        <v>5.381</v>
+        <v>4.126</v>
       </c>
       <c r="D65" t="n">
-        <v>46612</v>
+        <v>204670</v>
       </c>
       <c r="E65" t="n">
-        <v>17448</v>
+        <v>73779</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G65" t="s">
-        <v>209</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>210</v>
-      </c>
-      <c r="J65" t="s">
-        <v>211</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="H65" t="s">
+        <v>203</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="n">
-        <v>6.871</v>
+        <v>5.263</v>
       </c>
       <c r="B66" t="n">
-        <v>6.767</v>
+        <v>5.208</v>
       </c>
       <c r="C66" t="n">
-        <v>6.963</v>
+        <v>5.381</v>
       </c>
       <c r="D66" t="n">
-        <v>213850</v>
+        <v>46612</v>
       </c>
       <c r="E66" t="n">
-        <v>74679</v>
+        <v>17448</v>
       </c>
       <c r="F66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G66" t="s">
-        <v>212</v>
-      </c>
-      <c r="H66" t="s">
-        <v>213</v>
-      </c>
-      <c r="I66" t="s"/>
-      <c r="J66" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>205</v>
+      </c>
+      <c r="J66" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="n">
-        <v>9.156000000000001</v>
+        <v>6.871</v>
       </c>
       <c r="B67" t="n">
-        <v>9.016999999999999</v>
+        <v>6.767</v>
       </c>
       <c r="C67" t="n">
-        <v>9.255000000000001</v>
+        <v>6.963</v>
       </c>
       <c r="D67" t="n">
-        <v>225505</v>
+        <v>213850</v>
       </c>
       <c r="E67" t="n">
-        <v>68512</v>
+        <v>74679</v>
       </c>
       <c r="F67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G67" t="s">
-        <v>214</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>215</v>
-      </c>
-      <c r="J67" t="s">
-        <v>216</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="H67" t="s">
+        <v>208</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="n">
-        <v>10.884</v>
+        <v>9.156000000000001</v>
       </c>
       <c r="B68" t="n">
-        <v>10.79</v>
+        <v>9.016999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>10.967</v>
+        <v>9.255000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>221136</v>
+        <v>225505</v>
       </c>
       <c r="E68" t="n">
-        <v>108003</v>
+        <v>68512</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G68" t="s">
-        <v>217</v>
-      </c>
-      <c r="H68" t="s">
-        <v>218</v>
-      </c>
-      <c r="I68" t="s"/>
-      <c r="J68" t="s"/>
+        <v>209</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>210</v>
+      </c>
+      <c r="J68" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="n">
-        <v>12.015</v>
+        <v>10.884</v>
       </c>
       <c r="B69" t="n">
-        <v>11.999</v>
+        <v>10.79</v>
       </c>
       <c r="C69" t="n">
-        <v>12.829</v>
+        <v>10.967</v>
       </c>
       <c r="D69" t="n">
-        <v>246317</v>
+        <v>221136</v>
       </c>
       <c r="E69" t="n">
-        <v>156916</v>
+        <v>108003</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>219</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>220</v>
-      </c>
-      <c r="J69" t="s">
-        <v>221</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="H69" t="s">
+        <v>213</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="n">
-        <v>12.863</v>
+        <v>12.015</v>
       </c>
       <c r="B70" t="n">
+        <v>11.999</v>
+      </c>
+      <c r="C70" t="n">
         <v>12.829</v>
       </c>
-      <c r="C70" t="n">
-        <v>12.932</v>
-      </c>
       <c r="D70" t="n">
-        <v>49856</v>
+        <v>246317</v>
       </c>
       <c r="E70" t="n">
-        <v>27288</v>
+        <v>156916</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>222</v>
-      </c>
-      <c r="H70" t="s">
-        <v>223</v>
-      </c>
-      <c r="I70" t="s"/>
-      <c r="J70" t="s"/>
+        <v>214</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>215</v>
+      </c>
+      <c r="J70" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="n">
-        <v>13.576</v>
+        <v>12.863</v>
       </c>
       <c r="B71" t="n">
-        <v>13.539</v>
+        <v>12.829</v>
       </c>
       <c r="C71" t="n">
-        <v>13.627</v>
+        <v>12.932</v>
       </c>
       <c r="D71" t="n">
-        <v>87138</v>
+        <v>49856</v>
       </c>
       <c r="E71" t="n">
-        <v>54376</v>
+        <v>27288</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>224</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>225</v>
-      </c>
-      <c r="J71" t="s">
-        <v>226</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="H71" t="s">
+        <v>218</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="n">
+        <v>13.576</v>
+      </c>
+      <c r="B72" t="n">
+        <v>13.539</v>
+      </c>
+      <c r="C72" t="n">
+        <v>13.627</v>
+      </c>
+      <c r="D72" t="n">
+        <v>87138</v>
+      </c>
+      <c r="E72" t="n">
+        <v>54376</v>
+      </c>
+      <c r="F72" t="s">
+        <v>41</v>
+      </c>
+      <c r="G72" t="s">
+        <v>219</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>220</v>
+      </c>
+      <c r="J72" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="n">
         <v>14.19</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B73" t="n">
         <v>14.159</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C73" t="n">
         <v>14.243</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D73" t="n">
         <v>33570</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E73" t="n">
         <v>21743</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F73" t="s">
         <v>42</v>
       </c>
-      <c r="G72" t="s">
-        <v>227</v>
-      </c>
-      <c r="H72" t="s">
-        <v>228</v>
-      </c>
-      <c r="I72" t="s"/>
-      <c r="J72" t="s"/>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" t="s">
-        <v>21</v>
-      </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
-      <c r="D73" t="s"/>
-      <c r="E73" t="s"/>
-      <c r="F73" t="s"/>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s"/>
+      <c r="G73" t="s">
+        <v>222</v>
+      </c>
+      <c r="H73" t="s">
+        <v>223</v>
+      </c>
       <c r="I73" t="s"/>
       <c r="J73" t="s"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" t="n">
-        <v>2.416</v>
-      </c>
-      <c r="B74" t="n">
-        <v>2.347</v>
-      </c>
-      <c r="C74" t="n">
-        <v>2.585</v>
-      </c>
-      <c r="D74" t="n">
-        <v>189409</v>
-      </c>
-      <c r="E74" t="n">
-        <v>59470</v>
-      </c>
-      <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s">
-        <v>229</v>
-      </c>
-      <c r="H74" t="s">
-        <v>230</v>
-      </c>
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="s"/>
+      <c r="E74" t="s"/>
+      <c r="F74" t="s"/>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s"/>
       <c r="I74" t="s"/>
       <c r="J74" t="s"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="n">
-        <v>3.102</v>
+        <v>2.416</v>
       </c>
       <c r="B75" t="n">
-        <v>3.019</v>
+        <v>2.347</v>
       </c>
       <c r="C75" t="n">
-        <v>3.579</v>
+        <v>2.585</v>
       </c>
       <c r="D75" t="n">
-        <v>29730</v>
+        <v>189409</v>
       </c>
       <c r="E75" t="n">
-        <v>5589</v>
+        <v>59470</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G75" t="s">
-        <v>231</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>232</v>
-      </c>
-      <c r="J75" t="s">
-        <v>233</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="H75" t="s">
+        <v>225</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="n">
-        <v>4.001</v>
+        <v>3.102</v>
       </c>
       <c r="B76" t="n">
-        <v>3.929</v>
+        <v>3.019</v>
       </c>
       <c r="C76" t="n">
-        <v>4.275</v>
+        <v>3.579</v>
       </c>
       <c r="D76" t="n">
-        <v>217992</v>
+        <v>29730</v>
       </c>
       <c r="E76" t="n">
-        <v>76232</v>
+        <v>5589</v>
       </c>
       <c r="F76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G76" t="s">
-        <v>234</v>
-      </c>
-      <c r="H76" t="s">
-        <v>235</v>
-      </c>
-      <c r="I76" t="s"/>
-      <c r="J76" t="s"/>
+        <v>226</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>227</v>
+      </c>
+      <c r="J76" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="n">
-        <v>5.264</v>
+        <v>4.001</v>
       </c>
       <c r="B77" t="n">
-        <v>5.208</v>
+        <v>3.929</v>
       </c>
       <c r="C77" t="n">
-        <v>5.315</v>
+        <v>4.275</v>
       </c>
       <c r="D77" t="n">
-        <v>17460</v>
+        <v>217992</v>
       </c>
       <c r="E77" t="n">
-        <v>6522</v>
+        <v>76232</v>
       </c>
       <c r="F77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G77" t="s">
-        <v>236</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>237</v>
-      </c>
-      <c r="J77" t="s">
-        <v>238</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="H77" t="s">
+        <v>230</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="n">
-        <v>6.873</v>
+        <v>5.264</v>
       </c>
       <c r="B78" t="n">
-        <v>6.785</v>
+        <v>5.208</v>
       </c>
       <c r="C78" t="n">
-        <v>6.972</v>
+        <v>5.315</v>
       </c>
       <c r="D78" t="n">
-        <v>220786</v>
+        <v>17460</v>
       </c>
       <c r="E78" t="n">
-        <v>77531</v>
+        <v>6522</v>
       </c>
       <c r="F78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G78" t="s">
-        <v>239</v>
-      </c>
-      <c r="H78" t="s">
-        <v>240</v>
-      </c>
-      <c r="I78" t="s"/>
-      <c r="J78" t="s"/>
+        <v>231</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>232</v>
+      </c>
+      <c r="J78" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="n">
-        <v>9.186</v>
+        <v>6.873</v>
       </c>
       <c r="B79" t="n">
-        <v>8.993</v>
+        <v>6.785</v>
       </c>
       <c r="C79" t="n">
-        <v>9.276999999999999</v>
+        <v>6.972</v>
       </c>
       <c r="D79" t="n">
-        <v>833318</v>
+        <v>220786</v>
       </c>
       <c r="E79" t="n">
-        <v>232106</v>
+        <v>77531</v>
       </c>
       <c r="F79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G79" t="s">
-        <v>241</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>242</v>
-      </c>
-      <c r="J79" t="s">
-        <v>243</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="H79" t="s">
+        <v>235</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s"/>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="n">
-        <v>10.883</v>
+        <v>9.186</v>
       </c>
       <c r="B80" t="n">
-        <v>10.733</v>
+        <v>8.993</v>
       </c>
       <c r="C80" t="n">
-        <v>10.967</v>
+        <v>9.276999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>196941</v>
+        <v>833318</v>
       </c>
       <c r="E80" t="n">
-        <v>96503</v>
+        <v>232106</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G80" t="s">
-        <v>244</v>
-      </c>
-      <c r="H80" t="s">
-        <v>245</v>
-      </c>
-      <c r="I80" t="s"/>
-      <c r="J80" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>237</v>
+      </c>
+      <c r="J80" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="n">
-        <v>12.008</v>
+        <v>10.883</v>
       </c>
       <c r="B81" t="n">
-        <v>11.998</v>
+        <v>10.733</v>
       </c>
       <c r="C81" t="n">
-        <v>12.138</v>
+        <v>10.967</v>
       </c>
       <c r="D81" t="n">
-        <v>43575</v>
+        <v>196941</v>
       </c>
       <c r="E81" t="n">
-        <v>27088</v>
+        <v>96503</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>246</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>247</v>
-      </c>
-      <c r="J81" t="s">
-        <v>248</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="H81" t="s">
+        <v>240</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s"/>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="n">
-        <v>12.862</v>
+        <v>12.008</v>
       </c>
       <c r="B82" t="n">
-        <v>12.777</v>
+        <v>11.998</v>
       </c>
       <c r="C82" t="n">
-        <v>12.931</v>
+        <v>12.138</v>
       </c>
       <c r="D82" t="n">
-        <v>51067</v>
+        <v>43575</v>
       </c>
       <c r="E82" t="n">
-        <v>27882</v>
+        <v>27088</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>249</v>
-      </c>
-      <c r="H82" t="s">
-        <v>250</v>
-      </c>
-      <c r="I82" t="s"/>
-      <c r="J82" t="s"/>
+        <v>241</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>242</v>
+      </c>
+      <c r="J82" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="n">
-        <v>13.573</v>
+        <v>12.862</v>
       </c>
       <c r="B83" t="n">
-        <v>13.538</v>
+        <v>12.777</v>
       </c>
       <c r="C83" t="n">
-        <v>13.622</v>
+        <v>12.931</v>
       </c>
       <c r="D83" t="n">
-        <v>21331</v>
+        <v>51067</v>
       </c>
       <c r="E83" t="n">
-        <v>13705</v>
+        <v>27882</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>251</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>252</v>
-      </c>
-      <c r="J83" t="s">
-        <v>253</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="H83" t="s">
+        <v>245</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s"/>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="n">
+        <v>13.573</v>
+      </c>
+      <c r="B84" t="n">
+        <v>13.538</v>
+      </c>
+      <c r="C84" t="n">
+        <v>13.622</v>
+      </c>
+      <c r="D84" t="n">
+        <v>21331</v>
+      </c>
+      <c r="E84" t="n">
+        <v>13705</v>
+      </c>
+      <c r="F84" t="s">
+        <v>41</v>
+      </c>
+      <c r="G84" t="s">
+        <v>246</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>247</v>
+      </c>
+      <c r="J84" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" t="n">
         <v>14.188</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B85" t="n">
         <v>14.163</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C85" t="n">
         <v>14.243</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D85" t="n">
         <v>34694</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E85" t="n">
         <v>17085</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F85" t="s">
         <v>42</v>
       </c>
-      <c r="G84" t="s">
-        <v>254</v>
-      </c>
-      <c r="H84" t="s">
-        <v>255</v>
-      </c>
-      <c r="I84" t="s"/>
-      <c r="J84" t="s"/>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" t="s">
-        <v>34</v>
-      </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
-      <c r="D85" t="s"/>
-      <c r="E85" t="s"/>
-      <c r="F85" t="s"/>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s"/>
+      <c r="G85" t="s">
+        <v>249</v>
+      </c>
+      <c r="H85" t="s">
+        <v>250</v>
+      </c>
       <c r="I85" t="s"/>
       <c r="J85" t="s"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" t="n">
-        <v>2.415</v>
-      </c>
-      <c r="B86" t="n">
-        <v>2.348</v>
-      </c>
-      <c r="C86" t="n">
-        <v>2.576</v>
-      </c>
-      <c r="D86" t="n">
-        <v>195188</v>
-      </c>
-      <c r="E86" t="n">
-        <v>61096</v>
-      </c>
-      <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" t="s">
-        <v>256</v>
-      </c>
-      <c r="H86" t="s">
-        <v>257</v>
-      </c>
+      <c r="A86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="s"/>
+      <c r="E86" t="s"/>
+      <c r="F86" t="s"/>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s"/>
       <c r="I86" t="s"/>
       <c r="J86" t="s"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="n">
-        <v>3.102</v>
+        <v>2.415</v>
       </c>
       <c r="B87" t="n">
-        <v>3.02</v>
+        <v>2.348</v>
       </c>
       <c r="C87" t="n">
-        <v>3.295</v>
+        <v>2.576</v>
       </c>
       <c r="D87" t="n">
-        <v>22971</v>
+        <v>195188</v>
       </c>
       <c r="E87" t="n">
-        <v>5275</v>
+        <v>61096</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G87" t="s">
-        <v>258</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>259</v>
-      </c>
-      <c r="J87" t="s">
-        <v>260</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="H87" t="s">
+        <v>252</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s"/>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="n">
-        <v>3.867</v>
+        <v>3.102</v>
       </c>
       <c r="B88" t="n">
-        <v>3.781</v>
+        <v>3.02</v>
       </c>
       <c r="C88" t="n">
-        <v>3.925</v>
+        <v>3.295</v>
       </c>
       <c r="D88" t="n">
-        <v>2525</v>
+        <v>22971</v>
       </c>
       <c r="E88" t="n">
-        <v>687</v>
+        <v>5275</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G88" t="s">
-        <v>261</v>
-      </c>
-      <c r="H88" t="s">
-        <v>262</v>
-      </c>
-      <c r="I88" t="s"/>
-      <c r="J88" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>254</v>
+      </c>
+      <c r="J88" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="n">
-        <v>5.264</v>
+        <v>3.867</v>
       </c>
       <c r="B89" t="n">
-        <v>5.213</v>
+        <v>3.781</v>
       </c>
       <c r="C89" t="n">
-        <v>5.325</v>
+        <v>3.925</v>
       </c>
       <c r="D89" t="n">
-        <v>17820</v>
+        <v>2525</v>
       </c>
       <c r="E89" t="n">
-        <v>6604</v>
+        <v>687</v>
       </c>
       <c r="F89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G89" t="s">
-        <v>263</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>264</v>
-      </c>
-      <c r="J89" t="s">
-        <v>265</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="H89" t="s">
+        <v>257</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s"/>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="n">
-        <v>6.874</v>
+        <v>5.264</v>
       </c>
       <c r="B90" t="n">
-        <v>6.772</v>
+        <v>5.213</v>
       </c>
       <c r="C90" t="n">
-        <v>6.982</v>
+        <v>5.325</v>
       </c>
       <c r="D90" t="n">
-        <v>240800</v>
+        <v>17820</v>
       </c>
       <c r="E90" t="n">
-        <v>84531</v>
+        <v>6604</v>
       </c>
       <c r="F90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G90" t="s">
-        <v>266</v>
-      </c>
-      <c r="H90" t="s">
-        <v>267</v>
-      </c>
-      <c r="I90" t="s"/>
-      <c r="J90" t="s"/>
+        <v>258</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>259</v>
+      </c>
+      <c r="J90" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="n">
-        <v>9.193</v>
+        <v>6.874</v>
       </c>
       <c r="B91" t="n">
-        <v>9.026</v>
+        <v>6.772</v>
       </c>
       <c r="C91" t="n">
-        <v>9.282999999999999</v>
+        <v>6.982</v>
       </c>
       <c r="D91" t="n">
-        <v>983742</v>
+        <v>240800</v>
       </c>
       <c r="E91" t="n">
-        <v>265848</v>
+        <v>84531</v>
       </c>
       <c r="F91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G91" t="s">
-        <v>268</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>269</v>
-      </c>
-      <c r="J91" t="s">
-        <v>270</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="H91" t="s">
+        <v>262</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s"/>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="n">
-        <v>10.886</v>
+        <v>9.193</v>
       </c>
       <c r="B92" t="n">
-        <v>10.799</v>
+        <v>9.026</v>
       </c>
       <c r="C92" t="n">
-        <v>10.963</v>
+        <v>9.282999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>243711</v>
+        <v>983742</v>
       </c>
       <c r="E92" t="n">
-        <v>121496</v>
+        <v>265848</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G92" t="s">
-        <v>271</v>
-      </c>
-      <c r="H92" t="s">
-        <v>272</v>
-      </c>
-      <c r="I92" t="s"/>
-      <c r="J92" t="s"/>
+        <v>263</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>264</v>
+      </c>
+      <c r="J92" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="n">
-        <v>12.102</v>
+        <v>10.886</v>
       </c>
       <c r="B93" t="n">
-        <v>12.078</v>
+        <v>10.799</v>
       </c>
       <c r="C93" t="n">
-        <v>12.139</v>
+        <v>10.963</v>
       </c>
       <c r="D93" t="n">
-        <v>1422</v>
+        <v>243711</v>
       </c>
       <c r="E93" t="n">
-        <v>859</v>
+        <v>121496</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>273</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>274</v>
-      </c>
-      <c r="J93" t="s">
-        <v>275</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="H93" t="s">
+        <v>267</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s"/>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" t="n">
-        <v>12.862</v>
+        <v>12.102</v>
       </c>
       <c r="B94" t="n">
-        <v>12.778</v>
+        <v>12.078</v>
       </c>
       <c r="C94" t="n">
-        <v>12.937</v>
+        <v>12.139</v>
       </c>
       <c r="D94" t="n">
-        <v>54970</v>
+        <v>1422</v>
       </c>
       <c r="E94" t="n">
-        <v>30231</v>
+        <v>859</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>276</v>
-      </c>
-      <c r="H94" t="s">
-        <v>277</v>
-      </c>
-      <c r="I94" t="s"/>
-      <c r="J94" t="s"/>
+        <v>268</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>269</v>
+      </c>
+      <c r="J94" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="n">
-        <v>13.574</v>
+        <v>12.862</v>
       </c>
       <c r="B95" t="n">
-        <v>13.548</v>
+        <v>12.778</v>
       </c>
       <c r="C95" t="n">
-        <v>13.613</v>
+        <v>12.937</v>
       </c>
       <c r="D95" t="n">
-        <v>16951</v>
+        <v>54970</v>
       </c>
       <c r="E95" t="n">
-        <v>10043</v>
+        <v>30231</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>278</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>279</v>
-      </c>
-      <c r="J95" t="s">
-        <v>280</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="H95" t="s">
+        <v>272</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s"/>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" t="n">
+        <v>13.574</v>
+      </c>
+      <c r="B96" t="n">
+        <v>13.548</v>
+      </c>
+      <c r="C96" t="n">
+        <v>13.613</v>
+      </c>
+      <c r="D96" t="n">
+        <v>16951</v>
+      </c>
+      <c r="E96" t="n">
+        <v>10043</v>
+      </c>
+      <c r="F96" t="s">
+        <v>41</v>
+      </c>
+      <c r="G96" t="s">
+        <v>273</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>274</v>
+      </c>
+      <c r="J96" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" t="n">
         <v>14.189</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B97" t="n">
         <v>14.159</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C97" t="n">
         <v>14.243</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D97" t="n">
         <v>50911</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E97" t="n">
         <v>27697</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F97" t="s">
         <v>42</v>
       </c>
-      <c r="G96" t="s">
-        <v>281</v>
-      </c>
-      <c r="H96" t="s">
-        <v>282</v>
-      </c>
-      <c r="I96" t="s"/>
-      <c r="J96" t="s"/>
-    </row>
-    <row r="97" spans="1:10">
-      <c r="A97" t="s">
-        <v>35</v>
-      </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
-      <c r="D97" t="s"/>
-      <c r="E97" t="s"/>
-      <c r="F97" t="s"/>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s"/>
+      <c r="G97" t="s">
+        <v>276</v>
+      </c>
+      <c r="H97" t="s">
+        <v>277</v>
+      </c>
       <c r="I97" t="s"/>
       <c r="J97" t="s"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" t="n">
-        <v>2.415</v>
-      </c>
-      <c r="B98" t="n">
-        <v>2.348</v>
-      </c>
-      <c r="C98" t="n">
-        <v>2.572</v>
-      </c>
-      <c r="D98" t="n">
-        <v>201971</v>
-      </c>
-      <c r="E98" t="n">
-        <v>63996</v>
-      </c>
-      <c r="F98" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" t="s">
-        <v>283</v>
-      </c>
-      <c r="H98" t="s">
-        <v>284</v>
-      </c>
+      <c r="A98" t="s">
+        <v>35</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="s"/>
+      <c r="E98" t="s"/>
+      <c r="F98" t="s"/>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s"/>
       <c r="I98" t="s"/>
       <c r="J98" t="s"/>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="n">
-        <v>3.102</v>
+        <v>2.415</v>
       </c>
       <c r="B99" t="n">
-        <v>3.02</v>
+        <v>2.348</v>
       </c>
       <c r="C99" t="n">
-        <v>3.3</v>
+        <v>2.572</v>
       </c>
       <c r="D99" t="n">
-        <v>25639</v>
+        <v>201971</v>
       </c>
       <c r="E99" t="n">
-        <v>5738</v>
+        <v>63996</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G99" t="s">
-        <v>285</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>286</v>
-      </c>
-      <c r="J99" t="s">
-        <v>287</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="H99" t="s">
+        <v>279</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s"/>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="n">
-        <v>3.867</v>
+        <v>3.102</v>
       </c>
       <c r="B100" t="n">
-        <v>3.781</v>
+        <v>3.02</v>
       </c>
       <c r="C100" t="n">
-        <v>3.925</v>
+        <v>3.3</v>
       </c>
       <c r="D100" t="n">
-        <v>2236</v>
+        <v>25639</v>
       </c>
       <c r="E100" t="n">
-        <v>605</v>
+        <v>5738</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G100" t="s">
-        <v>288</v>
-      </c>
-      <c r="H100" t="s">
-        <v>289</v>
-      </c>
-      <c r="I100" t="s"/>
-      <c r="J100" t="s"/>
+        <v>280</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>281</v>
+      </c>
+      <c r="J100" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="n">
-        <v>5.264</v>
+        <v>3.867</v>
       </c>
       <c r="B101" t="n">
-        <v>5.208</v>
+        <v>3.781</v>
       </c>
       <c r="C101" t="n">
-        <v>5.316</v>
+        <v>3.925</v>
       </c>
       <c r="D101" t="n">
-        <v>18810</v>
+        <v>2236</v>
       </c>
       <c r="E101" t="n">
-        <v>6994</v>
+        <v>605</v>
       </c>
       <c r="F101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G101" t="s">
-        <v>290</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>291</v>
-      </c>
-      <c r="J101" t="s">
-        <v>292</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="H101" t="s">
+        <v>284</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s"/>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="n">
-        <v>6.875</v>
+        <v>5.264</v>
       </c>
       <c r="B102" t="n">
-        <v>6.767</v>
+        <v>5.208</v>
       </c>
       <c r="C102" t="n">
-        <v>6.968</v>
+        <v>5.316</v>
       </c>
       <c r="D102" t="n">
-        <v>255307</v>
+        <v>18810</v>
       </c>
       <c r="E102" t="n">
-        <v>89651</v>
+        <v>6994</v>
       </c>
       <c r="F102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G102" t="s">
-        <v>293</v>
-      </c>
-      <c r="H102" t="s">
-        <v>294</v>
-      </c>
-      <c r="I102" t="s"/>
-      <c r="J102" t="s"/>
+        <v>285</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>286</v>
+      </c>
+      <c r="J102" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="n">
-        <v>9.193</v>
+        <v>6.875</v>
       </c>
       <c r="B103" t="n">
-        <v>9.031000000000001</v>
+        <v>6.767</v>
       </c>
       <c r="C103" t="n">
-        <v>9.282999999999999</v>
+        <v>6.968</v>
       </c>
       <c r="D103" t="n">
-        <v>952920</v>
+        <v>255307</v>
       </c>
       <c r="E103" t="n">
-        <v>257644</v>
+        <v>89651</v>
       </c>
       <c r="F103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G103" t="s">
-        <v>295</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>296</v>
-      </c>
-      <c r="J103" t="s">
-        <v>297</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="H103" t="s">
+        <v>289</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s"/>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="n">
-        <v>10.887</v>
+        <v>9.193</v>
       </c>
       <c r="B104" t="n">
-        <v>10.79</v>
+        <v>9.031000000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>10.967</v>
+        <v>9.282999999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>264680</v>
+        <v>952920</v>
       </c>
       <c r="E104" t="n">
-        <v>133619</v>
+        <v>257644</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G104" t="s">
-        <v>298</v>
-      </c>
-      <c r="H104" t="s">
-        <v>299</v>
-      </c>
-      <c r="I104" t="s"/>
-      <c r="J104" t="s"/>
+        <v>290</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>291</v>
+      </c>
+      <c r="J104" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="n">
-        <v>11.968</v>
+        <v>10.887</v>
       </c>
       <c r="B105" t="n">
-        <v>11.91</v>
+        <v>10.79</v>
       </c>
       <c r="C105" t="n">
-        <v>12.176</v>
+        <v>10.967</v>
       </c>
       <c r="D105" t="n">
-        <v>1000463</v>
+        <v>264680</v>
       </c>
       <c r="E105" t="n">
-        <v>512560</v>
+        <v>133619</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>300</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>301</v>
-      </c>
-      <c r="J105" t="s">
-        <v>302</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="H105" t="s">
+        <v>294</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s"/>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="n">
-        <v>12.864</v>
+        <v>11.968</v>
       </c>
       <c r="B106" t="n">
-        <v>12.829</v>
+        <v>11.91</v>
       </c>
       <c r="C106" t="n">
-        <v>12.937</v>
+        <v>12.176</v>
       </c>
       <c r="D106" t="n">
-        <v>58229</v>
+        <v>1000463</v>
       </c>
       <c r="E106" t="n">
-        <v>32691</v>
+        <v>512560</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>303</v>
-      </c>
-      <c r="H106" t="s">
-        <v>304</v>
-      </c>
-      <c r="I106" t="s"/>
-      <c r="J106" t="s"/>
+        <v>295</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>296</v>
+      </c>
+      <c r="J106" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="n">
-        <v>13.575</v>
+        <v>12.864</v>
       </c>
       <c r="B107" t="n">
-        <v>13.548</v>
+        <v>12.829</v>
       </c>
       <c r="C107" t="n">
-        <v>13.618</v>
+        <v>12.937</v>
       </c>
       <c r="D107" t="n">
-        <v>15171</v>
+        <v>58229</v>
       </c>
       <c r="E107" t="n">
-        <v>8870</v>
+        <v>32691</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>305</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>306</v>
-      </c>
-      <c r="J107" t="s">
-        <v>307</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="H107" t="s">
+        <v>299</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s"/>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="n">
+        <v>13.575</v>
+      </c>
+      <c r="B108" t="n">
+        <v>13.548</v>
+      </c>
+      <c r="C108" t="n">
+        <v>13.618</v>
+      </c>
+      <c r="D108" t="n">
+        <v>15171</v>
+      </c>
+      <c r="E108" t="n">
+        <v>8870</v>
+      </c>
+      <c r="F108" t="s">
+        <v>41</v>
+      </c>
+      <c r="G108" t="s">
+        <v>300</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>301</v>
+      </c>
+      <c r="J108" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" t="n">
         <v>14.19</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B109" t="n">
         <v>14.164</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C109" t="n">
         <v>14.243</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D109" t="n">
         <v>54353</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E109" t="n">
         <v>31711</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F109" t="s">
         <v>42</v>
       </c>
-      <c r="G108" t="s">
-        <v>308</v>
-      </c>
-      <c r="H108" t="s">
-        <v>309</v>
-      </c>
-      <c r="I108" t="s"/>
-      <c r="J108" t="s"/>
-    </row>
-    <row r="109" spans="1:10">
-      <c r="A109" t="s">
-        <v>36</v>
-      </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
-      <c r="D109" t="s"/>
-      <c r="E109" t="s"/>
-      <c r="F109" t="s"/>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s"/>
+      <c r="G109" t="s">
+        <v>303</v>
+      </c>
+      <c r="H109" t="s">
+        <v>304</v>
+      </c>
       <c r="I109" t="s"/>
       <c r="J109" t="s"/>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" t="n">
-        <v>2.411</v>
-      </c>
-      <c r="B110" t="n">
-        <v>2.348</v>
-      </c>
-      <c r="C110" t="n">
-        <v>3.295</v>
-      </c>
-      <c r="D110" t="n">
-        <v>157702</v>
-      </c>
-      <c r="E110" t="n">
-        <v>55850</v>
-      </c>
-      <c r="F110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" t="s">
-        <v>310</v>
-      </c>
-      <c r="H110" t="s">
-        <v>311</v>
-      </c>
+      <c r="A110" t="s">
+        <v>36</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="s"/>
+      <c r="E110" t="s"/>
+      <c r="F110" t="s"/>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s"/>
       <c r="I110" t="s"/>
       <c r="J110" t="s"/>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="n">
-        <v>3.097</v>
+        <v>2.411</v>
       </c>
       <c r="B111" t="n">
-        <v>3.015</v>
+        <v>2.348</v>
       </c>
       <c r="C111" t="n">
-        <v>3.146</v>
+        <v>3.295</v>
       </c>
       <c r="D111" t="n">
-        <v>14255</v>
+        <v>157702</v>
       </c>
       <c r="E111" t="n">
-        <v>4367</v>
+        <v>55850</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G111" t="s">
-        <v>312</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>313</v>
-      </c>
-      <c r="J111" t="s">
-        <v>314</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="H111" t="s">
+        <v>306</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s"/>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" t="n">
-        <v>3.995</v>
+        <v>3.097</v>
       </c>
       <c r="B112" t="n">
-        <v>3.925</v>
+        <v>3.015</v>
       </c>
       <c r="C112" t="n">
-        <v>4.275</v>
+        <v>3.146</v>
       </c>
       <c r="D112" t="n">
-        <v>182003</v>
+        <v>14255</v>
       </c>
       <c r="E112" t="n">
-        <v>68597</v>
+        <v>4367</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G112" t="s">
-        <v>315</v>
-      </c>
-      <c r="H112" t="s">
-        <v>316</v>
-      </c>
-      <c r="I112" t="s"/>
-      <c r="J112" t="s"/>
+        <v>307</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>308</v>
+      </c>
+      <c r="J112" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" t="n">
-        <v>5.26</v>
+        <v>3.995</v>
       </c>
       <c r="B113" t="n">
-        <v>5.209</v>
+        <v>3.925</v>
       </c>
       <c r="C113" t="n">
-        <v>5.307</v>
+        <v>4.275</v>
       </c>
       <c r="D113" t="n">
-        <v>19082</v>
+        <v>182003</v>
       </c>
       <c r="E113" t="n">
-        <v>7433</v>
+        <v>68597</v>
       </c>
       <c r="F113" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G113" t="s">
-        <v>317</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>318</v>
-      </c>
-      <c r="J113" t="s">
-        <v>319</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="H113" t="s">
+        <v>311</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s"/>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="n">
-        <v>6.869</v>
+        <v>5.26</v>
       </c>
       <c r="B114" t="n">
-        <v>6.772</v>
+        <v>5.209</v>
       </c>
       <c r="C114" t="n">
-        <v>6.959</v>
+        <v>5.307</v>
       </c>
       <c r="D114" t="n">
-        <v>194017</v>
+        <v>19082</v>
       </c>
       <c r="E114" t="n">
-        <v>69615</v>
+        <v>7433</v>
       </c>
       <c r="F114" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G114" t="s">
-        <v>320</v>
-      </c>
-      <c r="H114" t="s">
-        <v>321</v>
-      </c>
-      <c r="I114" t="s"/>
-      <c r="J114" t="s"/>
+        <v>312</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>313</v>
+      </c>
+      <c r="J114" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="n">
-        <v>9.19</v>
+        <v>6.869</v>
       </c>
       <c r="B115" t="n">
-        <v>9.016999999999999</v>
+        <v>6.772</v>
       </c>
       <c r="C115" t="n">
-        <v>9.278</v>
+        <v>6.959</v>
       </c>
       <c r="D115" t="n">
-        <v>945210</v>
+        <v>194017</v>
       </c>
       <c r="E115" t="n">
-        <v>257379</v>
+        <v>69615</v>
       </c>
       <c r="F115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G115" t="s">
-        <v>322</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>323</v>
-      </c>
-      <c r="J115" t="s">
-        <v>324</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="H115" t="s">
+        <v>316</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s"/>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="n">
-        <v>10.884</v>
+        <v>9.19</v>
       </c>
       <c r="B116" t="n">
-        <v>10.799</v>
+        <v>9.016999999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>10.963</v>
+        <v>9.278</v>
       </c>
       <c r="D116" t="n">
-        <v>193345</v>
+        <v>945210</v>
       </c>
       <c r="E116" t="n">
-        <v>95508</v>
+        <v>257379</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G116" t="s">
-        <v>325</v>
-      </c>
-      <c r="H116" t="s">
-        <v>326</v>
-      </c>
-      <c r="I116" t="s"/>
-      <c r="J116" t="s"/>
+        <v>317</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>318</v>
+      </c>
+      <c r="J116" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="n">
-        <v>12.01</v>
+        <v>10.884</v>
       </c>
       <c r="B117" t="n">
-        <v>11.999</v>
+        <v>10.799</v>
       </c>
       <c r="C117" t="n">
-        <v>12.176</v>
+        <v>10.963</v>
       </c>
       <c r="D117" t="n">
-        <v>51473</v>
+        <v>193345</v>
       </c>
       <c r="E117" t="n">
-        <v>31144</v>
+        <v>95508</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>327</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>328</v>
-      </c>
-      <c r="J117" t="s">
-        <v>329</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="H117" t="s">
+        <v>321</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s"/>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="n">
-        <v>12.863</v>
+        <v>12.01</v>
       </c>
       <c r="B118" t="n">
-        <v>12.829</v>
+        <v>11.999</v>
       </c>
       <c r="C118" t="n">
-        <v>12.937</v>
+        <v>12.176</v>
       </c>
       <c r="D118" t="n">
-        <v>41565</v>
+        <v>51473</v>
       </c>
       <c r="E118" t="n">
-        <v>23213</v>
+        <v>31144</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>330</v>
-      </c>
-      <c r="H118" t="s">
-        <v>331</v>
-      </c>
-      <c r="I118" t="s"/>
-      <c r="J118" t="s"/>
+        <v>322</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>323</v>
+      </c>
+      <c r="J118" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="n">
-        <v>13.576</v>
+        <v>12.863</v>
       </c>
       <c r="B119" t="n">
-        <v>13.548</v>
+        <v>12.829</v>
       </c>
       <c r="C119" t="n">
-        <v>13.609</v>
+        <v>12.937</v>
       </c>
       <c r="D119" t="n">
-        <v>9232</v>
+        <v>41565</v>
       </c>
       <c r="E119" t="n">
-        <v>5662</v>
+        <v>23213</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>332</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>333</v>
-      </c>
-      <c r="J119" t="s">
-        <v>334</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="H119" t="s">
+        <v>326</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s"/>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="n">
+        <v>13.576</v>
+      </c>
+      <c r="B120" t="n">
+        <v>13.548</v>
+      </c>
+      <c r="C120" t="n">
+        <v>13.609</v>
+      </c>
+      <c r="D120" t="n">
+        <v>9232</v>
+      </c>
+      <c r="E120" t="n">
+        <v>5662</v>
+      </c>
+      <c r="F120" t="s">
+        <v>41</v>
+      </c>
+      <c r="G120" t="s">
+        <v>327</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>328</v>
+      </c>
+      <c r="J120" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" t="n">
         <v>14.19</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B121" t="n">
         <v>14.169</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C121" t="n">
         <v>14.243</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D121" t="n">
         <v>39814</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E121" t="n">
         <v>22779</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F121" t="s">
         <v>42</v>
       </c>
-      <c r="G120" t="s">
-        <v>335</v>
-      </c>
-      <c r="H120" t="s">
-        <v>336</v>
-      </c>
-      <c r="I120" t="s"/>
-      <c r="J120" t="s"/>
-    </row>
-    <row r="121" spans="1:10">
-      <c r="A121" t="s">
-        <v>39</v>
-      </c>
-      <c r="B121" t="s"/>
-      <c r="C121" t="s"/>
-      <c r="D121" t="s"/>
-      <c r="E121" t="s"/>
-      <c r="F121" t="s"/>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s"/>
+      <c r="G121" t="s">
+        <v>330</v>
+      </c>
+      <c r="H121" t="s">
+        <v>331</v>
+      </c>
       <c r="I121" t="s"/>
       <c r="J121" t="s"/>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" t="n">
-        <v>2.417</v>
-      </c>
-      <c r="B122" t="n">
-        <v>2.344</v>
-      </c>
-      <c r="C122" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="D122" t="n">
-        <v>110172</v>
-      </c>
-      <c r="E122" t="n">
-        <v>45509</v>
-      </c>
-      <c r="F122" t="s">
-        <v>22</v>
-      </c>
-      <c r="G122" t="s">
-        <v>337</v>
-      </c>
-      <c r="H122" t="s">
-        <v>338</v>
-      </c>
+      <c r="A122" t="s">
+        <v>39</v>
+      </c>
+      <c r="B122" t="s"/>
+      <c r="C122" t="s"/>
+      <c r="D122" t="s"/>
+      <c r="E122" t="s"/>
+      <c r="F122" t="s"/>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s"/>
       <c r="I122" t="s"/>
       <c r="J122" t="s"/>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="n">
-        <v>3.103</v>
+        <v>2.417</v>
       </c>
       <c r="B123" t="n">
-        <v>3.006</v>
+        <v>2.344</v>
       </c>
       <c r="C123" t="n">
-        <v>3.146</v>
+        <v>2.53</v>
       </c>
       <c r="D123" t="n">
-        <v>8700</v>
+        <v>110172</v>
       </c>
       <c r="E123" t="n">
-        <v>2927</v>
+        <v>45509</v>
       </c>
       <c r="F123" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G123" t="s">
-        <v>339</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>340</v>
-      </c>
-      <c r="J123" t="s">
-        <v>341</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="H123" t="s">
+        <v>333</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s"/>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="n">
-        <v>3.997</v>
+        <v>3.103</v>
       </c>
       <c r="B124" t="n">
-        <v>3.926</v>
+        <v>3.006</v>
       </c>
       <c r="C124" t="n">
-        <v>4.238</v>
+        <v>3.146</v>
       </c>
       <c r="D124" t="n">
-        <v>102217</v>
+        <v>8700</v>
       </c>
       <c r="E124" t="n">
-        <v>42572</v>
+        <v>2927</v>
       </c>
       <c r="F124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G124" t="s">
-        <v>342</v>
-      </c>
-      <c r="H124" t="s">
-        <v>343</v>
-      </c>
-      <c r="I124" t="s"/>
-      <c r="J124" t="s"/>
+        <v>334</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>335</v>
+      </c>
+      <c r="J124" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="n">
-        <v>5.261</v>
+        <v>3.997</v>
       </c>
       <c r="B125" t="n">
-        <v>5.209</v>
+        <v>3.926</v>
       </c>
       <c r="C125" t="n">
-        <v>5.307</v>
+        <v>4.238</v>
       </c>
       <c r="D125" t="n">
-        <v>9847</v>
+        <v>102217</v>
       </c>
       <c r="E125" t="n">
-        <v>4088</v>
+        <v>42572</v>
       </c>
       <c r="F125" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G125" t="s">
-        <v>344</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>345</v>
-      </c>
-      <c r="J125" t="s">
-        <v>346</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="H125" t="s">
+        <v>338</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s"/>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="n">
-        <v>6.867</v>
+        <v>5.261</v>
       </c>
       <c r="B126" t="n">
-        <v>6.777</v>
+        <v>5.209</v>
       </c>
       <c r="C126" t="n">
-        <v>6.959</v>
+        <v>5.307</v>
       </c>
       <c r="D126" t="n">
-        <v>89410</v>
+        <v>9847</v>
       </c>
       <c r="E126" t="n">
-        <v>33548</v>
+        <v>4088</v>
       </c>
       <c r="F126" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G126" t="s">
-        <v>347</v>
-      </c>
-      <c r="H126" t="s">
-        <v>348</v>
-      </c>
-      <c r="I126" t="s"/>
-      <c r="J126" t="s"/>
+        <v>339</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>340</v>
+      </c>
+      <c r="J126" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" t="n">
-        <v>9.166</v>
+        <v>6.867</v>
       </c>
       <c r="B127" t="n">
-        <v>9.026</v>
+        <v>6.777</v>
       </c>
       <c r="C127" t="n">
-        <v>9.273999999999999</v>
+        <v>6.959</v>
       </c>
       <c r="D127" t="n">
-        <v>391203</v>
+        <v>89410</v>
       </c>
       <c r="E127" t="n">
-        <v>120208</v>
+        <v>33548</v>
       </c>
       <c r="F127" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G127" t="s">
-        <v>349</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>350</v>
-      </c>
-      <c r="J127" t="s">
-        <v>351</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="H127" t="s">
+        <v>343</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s"/>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="n">
-        <v>10.879</v>
+        <v>9.166</v>
       </c>
       <c r="B128" t="n">
-        <v>10.809</v>
+        <v>9.026</v>
       </c>
       <c r="C128" t="n">
-        <v>10.958</v>
+        <v>9.273999999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>76836</v>
+        <v>391203</v>
       </c>
       <c r="E128" t="n">
-        <v>38662</v>
+        <v>120208</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G128" t="s">
-        <v>352</v>
-      </c>
-      <c r="H128" t="s">
-        <v>353</v>
-      </c>
-      <c r="I128" t="s"/>
-      <c r="J128" t="s"/>
+        <v>344</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>345</v>
+      </c>
+      <c r="J128" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="n">
-        <v>12.085</v>
+        <v>10.879</v>
       </c>
       <c r="B129" t="n">
-        <v>12.05</v>
+        <v>10.809</v>
       </c>
       <c r="C129" t="n">
-        <v>12.13</v>
+        <v>10.958</v>
       </c>
       <c r="D129" t="n">
-        <v>3149</v>
+        <v>76836</v>
       </c>
       <c r="E129" t="n">
-        <v>1092</v>
+        <v>38662</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>354</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>355</v>
-      </c>
-      <c r="J129" t="s">
-        <v>356</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="H129" t="s">
+        <v>348</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s"/>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="n">
-        <v>12.862</v>
+        <v>12.085</v>
       </c>
       <c r="B130" t="n">
-        <v>12.829</v>
+        <v>12.05</v>
       </c>
       <c r="C130" t="n">
-        <v>12.932</v>
+        <v>12.13</v>
       </c>
       <c r="D130" t="n">
-        <v>15524</v>
+        <v>3149</v>
       </c>
       <c r="E130" t="n">
-        <v>8147</v>
+        <v>1092</v>
       </c>
       <c r="F130" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>357</v>
-      </c>
-      <c r="H130" t="s">
-        <v>358</v>
-      </c>
-      <c r="I130" t="s"/>
-      <c r="J130" t="s"/>
+        <v>349</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>350</v>
+      </c>
+      <c r="J130" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="n">
-        <v>13.575</v>
+        <v>12.862</v>
       </c>
       <c r="B131" t="n">
-        <v>13.553</v>
+        <v>12.829</v>
       </c>
       <c r="C131" t="n">
-        <v>13.604</v>
+        <v>12.932</v>
       </c>
       <c r="D131" t="n">
-        <v>3140</v>
+        <v>15524</v>
       </c>
       <c r="E131" t="n">
-        <v>1867</v>
+        <v>8147</v>
       </c>
       <c r="F131" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>359</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>360</v>
-      </c>
-      <c r="J131" t="s">
-        <v>361</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="H131" t="s">
+        <v>353</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s"/>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="n">
+        <v>13.575</v>
+      </c>
+      <c r="B132" t="n">
+        <v>13.553</v>
+      </c>
+      <c r="C132" t="n">
+        <v>13.604</v>
+      </c>
+      <c r="D132" t="n">
+        <v>3140</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1867</v>
+      </c>
+      <c r="F132" t="s">
+        <v>41</v>
+      </c>
+      <c r="G132" t="s">
+        <v>354</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>355</v>
+      </c>
+      <c r="J132" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" t="n">
         <v>14.189</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B133" t="n">
         <v>14.169</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C133" t="n">
         <v>14.243</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D133" t="n">
         <v>21461</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E133" t="n">
         <v>9015</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F133" t="s">
         <v>42</v>
       </c>
-      <c r="G132" t="s">
-        <v>362</v>
-      </c>
-      <c r="H132" t="s">
-        <v>363</v>
-      </c>
-      <c r="I132" t="s"/>
-      <c r="J132" t="s"/>
-    </row>
-    <row r="133" spans="1:10">
-      <c r="A133" t="s">
-        <v>40</v>
-      </c>
-      <c r="B133" t="s"/>
-      <c r="C133" t="s"/>
-      <c r="D133" t="s"/>
-      <c r="E133" t="s"/>
-      <c r="F133" t="s"/>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s"/>
+      <c r="G133" t="s">
+        <v>357</v>
+      </c>
+      <c r="H133" t="s">
+        <v>358</v>
+      </c>
       <c r="I133" t="s"/>
       <c r="J133" t="s"/>
     </row>
     <row r="134" spans="1:10">
-      <c r="A134" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="B134" t="n">
-        <v>2.343</v>
-      </c>
-      <c r="C134" t="n">
-        <v>2.585</v>
-      </c>
-      <c r="D134" t="n">
-        <v>91334</v>
-      </c>
-      <c r="E134" t="n">
-        <v>29136</v>
-      </c>
-      <c r="F134" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" t="s">
-        <v>364</v>
-      </c>
-      <c r="H134" t="s">
-        <v>365</v>
-      </c>
+      <c r="A134" t="s">
+        <v>40</v>
+      </c>
+      <c r="B134" t="s"/>
+      <c r="C134" t="s"/>
+      <c r="D134" t="s"/>
+      <c r="E134" t="s"/>
+      <c r="F134" t="s"/>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s"/>
       <c r="I134" t="s"/>
       <c r="J134" t="s"/>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" t="n">
-        <v>3.108</v>
+        <v>2.42</v>
       </c>
       <c r="B135" t="n">
-        <v>3.015</v>
+        <v>2.343</v>
       </c>
       <c r="C135" t="n">
-        <v>3.155</v>
+        <v>2.585</v>
       </c>
       <c r="D135" t="n">
-        <v>8768</v>
+        <v>91334</v>
       </c>
       <c r="E135" t="n">
-        <v>2374</v>
+        <v>29136</v>
       </c>
       <c r="F135" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G135" t="s">
-        <v>366</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>367</v>
-      </c>
-      <c r="J135" t="s">
-        <v>368</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="H135" t="s">
+        <v>360</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s"/>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" t="n">
-        <v>4.001</v>
+        <v>3.108</v>
       </c>
       <c r="B136" t="n">
-        <v>3.92</v>
+        <v>3.015</v>
       </c>
       <c r="C136" t="n">
-        <v>4.069</v>
+        <v>3.155</v>
       </c>
       <c r="D136" t="n">
-        <v>116361</v>
+        <v>8768</v>
       </c>
       <c r="E136" t="n">
-        <v>41545</v>
+        <v>2374</v>
       </c>
       <c r="F136" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G136" t="s">
-        <v>369</v>
-      </c>
-      <c r="H136" t="s">
-        <v>370</v>
-      </c>
-      <c r="I136" t="s"/>
-      <c r="J136" t="s"/>
+        <v>361</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>362</v>
+      </c>
+      <c r="J136" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" t="n">
-        <v>5.264</v>
+        <v>4.001</v>
       </c>
       <c r="B137" t="n">
-        <v>5.203</v>
+        <v>3.92</v>
       </c>
       <c r="C137" t="n">
-        <v>5.311</v>
+        <v>4.069</v>
       </c>
       <c r="D137" t="n">
-        <v>13635</v>
+        <v>116361</v>
       </c>
       <c r="E137" t="n">
-        <v>5035</v>
+        <v>41545</v>
       </c>
       <c r="F137" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G137" t="s">
-        <v>371</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>372</v>
-      </c>
-      <c r="J137" t="s">
-        <v>373</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="H137" t="s">
+        <v>365</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s"/>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="n">
-        <v>6.869</v>
+        <v>5.264</v>
       </c>
       <c r="B138" t="n">
-        <v>6.771</v>
+        <v>5.203</v>
       </c>
       <c r="C138" t="n">
-        <v>6.958</v>
+        <v>5.311</v>
       </c>
       <c r="D138" t="n">
-        <v>134092</v>
+        <v>13635</v>
       </c>
       <c r="E138" t="n">
-        <v>46880</v>
+        <v>5035</v>
       </c>
       <c r="F138" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G138" t="s">
-        <v>374</v>
-      </c>
-      <c r="H138" t="s">
-        <v>375</v>
-      </c>
-      <c r="I138" t="s"/>
-      <c r="J138" t="s"/>
+        <v>366</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>367</v>
+      </c>
+      <c r="J138" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="n">
-        <v>9.178000000000001</v>
+        <v>6.869</v>
       </c>
       <c r="B139" t="n">
-        <v>9.021000000000001</v>
+        <v>6.771</v>
       </c>
       <c r="C139" t="n">
-        <v>9.273</v>
+        <v>6.958</v>
       </c>
       <c r="D139" t="n">
-        <v>660970</v>
+        <v>134092</v>
       </c>
       <c r="E139" t="n">
-        <v>187703</v>
+        <v>46880</v>
       </c>
       <c r="F139" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G139" t="s">
-        <v>376</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>377</v>
-      </c>
-      <c r="J139" t="s">
-        <v>378</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="H139" t="s">
+        <v>370</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s"/>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="n">
-        <v>10.881</v>
+        <v>9.178000000000001</v>
       </c>
       <c r="B140" t="n">
-        <v>10.808</v>
+        <v>9.021000000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>10.962</v>
+        <v>9.273</v>
       </c>
       <c r="D140" t="n">
-        <v>135342</v>
+        <v>660970</v>
       </c>
       <c r="E140" t="n">
-        <v>67497</v>
+        <v>187703</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G140" t="s">
-        <v>379</v>
-      </c>
-      <c r="H140" t="s">
-        <v>380</v>
-      </c>
-      <c r="I140" t="s"/>
-      <c r="J140" t="s"/>
+        <v>371</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>372</v>
+      </c>
+      <c r="J140" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="n">
-        <v>12.005</v>
+        <v>10.881</v>
       </c>
       <c r="B141" t="n">
-        <v>11.998</v>
+        <v>10.808</v>
       </c>
       <c r="C141" t="n">
-        <v>12.049</v>
+        <v>10.962</v>
       </c>
       <c r="D141" t="n">
-        <v>32565</v>
+        <v>135342</v>
       </c>
       <c r="E141" t="n">
-        <v>22482</v>
+        <v>67497</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G141" t="s">
-        <v>381</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>382</v>
-      </c>
-      <c r="J141" t="s">
-        <v>383</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="H141" t="s">
+        <v>375</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s"/>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="n">
-        <v>12.862</v>
+        <v>12.005</v>
       </c>
       <c r="B142" t="n">
-        <v>12.829</v>
+        <v>11.998</v>
       </c>
       <c r="C142" t="n">
-        <v>12.936</v>
+        <v>12.049</v>
       </c>
       <c r="D142" t="n">
-        <v>27924</v>
+        <v>32565</v>
       </c>
       <c r="E142" t="n">
-        <v>15264</v>
+        <v>22482</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>384</v>
-      </c>
-      <c r="H142" t="s">
-        <v>385</v>
-      </c>
-      <c r="I142" t="s"/>
-      <c r="J142" t="s"/>
+        <v>376</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>377</v>
+      </c>
+      <c r="J142" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" t="n">
-        <v>13.575</v>
+        <v>12.862</v>
       </c>
       <c r="B143" t="n">
-        <v>13.547</v>
+        <v>12.829</v>
       </c>
       <c r="C143" t="n">
-        <v>13.608</v>
+        <v>12.936</v>
       </c>
       <c r="D143" t="n">
-        <v>5526</v>
+        <v>27924</v>
       </c>
       <c r="E143" t="n">
-        <v>3416</v>
+        <v>15264</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
-        <v>386</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>387</v>
-      </c>
-      <c r="J143" t="s">
-        <v>388</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="H143" t="s">
+        <v>380</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s"/>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" t="n">
+        <v>13.575</v>
+      </c>
+      <c r="B144" t="n">
+        <v>13.547</v>
+      </c>
+      <c r="C144" t="n">
+        <v>13.608</v>
+      </c>
+      <c r="D144" t="n">
+        <v>5526</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3416</v>
+      </c>
+      <c r="F144" t="s">
+        <v>41</v>
+      </c>
+      <c r="G144" t="s">
+        <v>381</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>382</v>
+      </c>
+      <c r="J144" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" t="n">
         <v>14.189</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B145" t="n">
         <v>14.168</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C145" t="n">
         <v>14.243</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D145" t="n">
         <v>26045</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E145" t="n">
         <v>13487</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F145" t="s">
         <v>42</v>
       </c>
-      <c r="G144" t="s">
-        <v>389</v>
-      </c>
-      <c r="H144" t="s">
-        <v>390</v>
-      </c>
-      <c r="I144" t="s"/>
-      <c r="J144" t="s"/>
+      <c r="G145" t="s">
+        <v>384</v>
+      </c>
+      <c r="H145" t="s">
+        <v>385</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
